--- a/gnao1_therapy.xlsx
+++ b/gnao1_therapy.xlsx
@@ -34,7 +34,7 @@
     <t>effectiveness</t>
   </si>
   <si>
-    <t>drugs</t>
+    <t>drugs (direction, activity[uM])</t>
   </si>
   <si>
     <t>gender</t>
@@ -55,13 +55,13 @@
     <t>effective</t>
   </si>
   <si>
-    <t>clobazam: GABR↑205;  phenobarbital</t>
+    <t>clobazam: GABR(↑205);  phenobarbital</t>
   </si>
   <si>
     <t>ineffective</t>
   </si>
   <si>
-    <t>oxcarbazepine: SCN?80K;  levetiracetam: SV2A?10K</t>
+    <t>oxcarbazepine: SCN(?80K);  levetiracetam: SV2A(?10K)</t>
   </si>
   <si>
     <t>movement disorder</t>
@@ -82,10 +82,10 @@
     <t>EOEE</t>
   </si>
   <si>
-    <t>clobazam: GABR↑205;  topiramate: CA↓1;  phenobarbital</t>
-  </si>
-  <si>
-    <t>levetiracetam: SV2A?10K</t>
+    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  phenobarbital</t>
+  </si>
+  <si>
+    <t>levetiracetam: SV2A(?10K)</t>
   </si>
   <si>
     <t>M</t>
@@ -133,7 +133,7 @@
     <t>focal seizures; dystonia</t>
   </si>
   <si>
-    <t>tetrabenazine: SLC↓13</t>
+    <t>tetrabenazine: SLC(↓13)</t>
   </si>
   <si>
     <t>28357411</t>
@@ -160,7 +160,7 @@
     <t>myoclonic seizures,  microcephaly, ataxia, spastic gait</t>
   </si>
   <si>
-    <t>vigabatrin: ABAT?300K,GABBR↑weak,SLC↓weak;  valproate</t>
+    <t>vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  valproate</t>
   </si>
   <si>
     <t>-</t>
@@ -175,7 +175,7 @@
     <t>EOEE; orolingual  dyskinesia</t>
   </si>
   <si>
-    <t>clobazam: GABR↑205;  topiramate: CA↓1;  vigabatrin: ABAT?300K,GABBR↑weak,SLC↓weak;  lacosamide: CA?331;  carbamazepine: DRD?10K,HTR?10K,AVPR1B?10K,SCN↓32K,HRH?55K;  hydroaltesone: NR3C↑12,SERPINA6?13;  valproate;  phenobarbital;  zonisamide: CA↓5;  levetiracetam: SV2A?10K</t>
+    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  hydroaltesone: NR3C(↑12),SERPINA6(?13);  valproate;  phenobarbital;  zonisamide: CA(↓5);  levetiracetam: SV2A(?10K)</t>
   </si>
   <si>
     <t>27072799</t>
@@ -190,13 +190,13 @@
     <t>seizures; chorea</t>
   </si>
   <si>
-    <t>clobazam: GABR↑205</t>
-  </si>
-  <si>
-    <t>zonisamide: CA↓5</t>
-  </si>
-  <si>
-    <t>clonazepam: GABR↑1</t>
+    <t>clobazam: GABR(↑205)</t>
+  </si>
+  <si>
+    <t>zonisamide: CA(↓5)</t>
+  </si>
+  <si>
+    <t>clonazepam: GABR(↑1)</t>
   </si>
   <si>
     <t>28202424</t>
@@ -211,10 +211,10 @@
     <t>spasmlike tonic seizures, myoclonic seizures, dyskinetic movements</t>
   </si>
   <si>
-    <t>clobazam: GABR↑205;  sulthiame: CA?6;  levetiracetam: SV2A?10K;  tiapride: DRD↓14,ADRA↓779</t>
-  </si>
-  <si>
-    <t>levodopa: DRD↑34,SLC↓323,TAAR1?422,ADRA?2K</t>
+    <t>clobazam: GABR(↑205);  sulthiame: CA(?6);  levetiracetam: SV2A(?10K);  tiapride: DRD(↓14),ADRA(↓779)</t>
+  </si>
+  <si>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K)</t>
   </si>
   <si>
     <t>28628939</t>
@@ -223,25 +223,25 @@
     <t>bilateral tonic seizures, tonic–clonic generalized seizures, vegetative autonomic seizures; paroxysmal dystonias</t>
   </si>
   <si>
-    <t>lamotrigine: SCN↓17K;  zonisamide: CA↓5</t>
-  </si>
-  <si>
-    <t>clobazam: GABR↑205;  topiramate: CA↓1;  methylprednisolone: NR3C↑5;  phenytoin: CYP2C9?8K,SCN↓24K;  vigabatrin: ABAT?300K,GABBR↑weak,SLC↓weak;  lacosamide: CA?331;  oxcarbazepine: SCN?80K;  valproate;  phenobarbital;  levetiracetam: SV2A?10K</t>
-  </si>
-  <si>
-    <t>baclofen: GABBR↑6K;  benzodiazepine: GABR↑1</t>
-  </si>
-  <si>
-    <t>trihexyphenidyl: CHRM↓1,SIGMAR1?45;  gabapentin: CACNA↓59</t>
+    <t>lamotrigine: SCN(↓17K);  zonisamide: CA(↓5)</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  methylprednisolone: NR3C(↑5);  phenytoin: CYP2C9(?8K),SCN(↓24K);  vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  oxcarbazepine: SCN(?80K);  valproate;  phenobarbital;  levetiracetam: SV2A(?10K)</t>
+  </si>
+  <si>
+    <t>baclofen: GABBR(↑6K);  benzodiazepine: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  gabapentin: CACNA(↓59)</t>
   </si>
   <si>
     <t>EOEE; dystonia;  paroxysmal  ballism;  chorea</t>
   </si>
   <si>
-    <t>topiramate: CA↓1</t>
-  </si>
-  <si>
-    <t>carbamazepine: DRD?10K,HTR?10K,AVPR1B?10K,SCN↓32K,HRH?55K;  phenobarbital;  benzodiazepine: GABR↑1</t>
+    <t>topiramate: CA(↓1)</t>
+  </si>
+  <si>
+    <t>carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  phenobarbital;  benzodiazepine: GABR(↑1)</t>
   </si>
   <si>
     <t>30642806</t>
@@ -253,13 +253,13 @@
     <t>phenobarbital</t>
   </si>
   <si>
-    <t>lorazepam: GABR↑3;  tetrabenazine: SLC↓13;  baclofen: GABBR↑6K</t>
+    <t>lorazepam: GABR(↑3);  tetrabenazine: SLC(↓13);  baclofen: GABBR(↑6K)</t>
   </si>
   <si>
     <t>EOEE; lack of  psychomotor  development</t>
   </si>
   <si>
-    <t>vigabatrin: ABAT?300K,GABBR↑weak,SLC↓weak;  topiramate: CA↓1;  levetiracetam: SV2A?10K</t>
+    <t>vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  topiramate: CA(↓1);  levetiracetam: SV2A(?10K)</t>
   </si>
   <si>
     <t>valproate</t>
@@ -274,7 +274,7 @@
     <t>EOEE; hypotonia; dystonic  posturing; chorea; ballism</t>
   </si>
   <si>
-    <t>tetrabenazine: SLC↓13;  benzodiazepine: GABR↑1</t>
+    <t>tetrabenazine: SLC(↓13);  benzodiazepine: GABR(↑1)</t>
   </si>
   <si>
     <t>30103967</t>
@@ -289,7 +289,7 @@
     <t>botox</t>
   </si>
   <si>
-    <t>sinemet: DRD↑34,SLC↓323,TAAR1?422,KDM4E?1K,ADRA?2K</t>
+    <t>sinemet: DRD(↑34),SLC(↓323),TAAR1(?422),KDM4E(?1K),ADRA(?2K)</t>
   </si>
   <si>
     <t>S207F</t>
@@ -298,7 +298,7 @@
     <t>choreoathetosis dystonia bradykinesia</t>
   </si>
   <si>
-    <t>levodopa: DRD↑34,SLC↓323,TAAR1?422,ADRA?2K;  botox;  trihexyphenidyl: CHRM↓1,SIGMAR1?45;  tetrabenazine: SLC↓13;  clonazepam: GABR↑1;  pramipexole: DRD↑2</t>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  botox;  trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  pramipexole: DRD(↑2)</t>
   </si>
   <si>
     <t>32044685</t>
@@ -322,34 +322,34 @@
     <t>trunk hypotonia; generalized choreo-ballistic hyperkinesia</t>
   </si>
   <si>
-    <t>haloperidol: SIGMAR1?1,DRD↓2,ADRA?8,TMEM97?14,HTR↓23;  curare: CHRN↓10K</t>
-  </si>
-  <si>
-    <t>midazolam: CYP3A4?2K,SLC?3K;  propofol: HTR?950,SLC?9K,CA?19K;  phenytoin: CYP2C9?8K,SCN↓24K;  baclofen: GABBR↑6K;  clonazepam: GABR↑1;  levodopa: DRD↑34,SLC↓323,TAAR1?422,ADRA?2K;  tetrabenazine: SLC↓13;  clonidine: NISCH?9,ADRA↑23,SLC↓550</t>
+    <t>haloperidol: SIGMAR1(?1),DRD(↓2),ADRA(?8),TMEM97(?14),HTR(↓23);  curare: CHRN(↓10K)</t>
+  </si>
+  <si>
+    <t>midazolam: CYP3A4(?2K),SLC(?3K);  propofol: HTR(?950),SLC(?9K),CA(?19K);  phenytoin: CYP2C9(?8K),SCN(↓24K);  baclofen: GABBR(↑6K);  clonazepam: GABR(↑1);  levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  tetrabenazine: SLC(↓13);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550)</t>
   </si>
   <si>
     <t>dystona w  hyperkinetic features;  orofacial dyskinesia</t>
   </si>
   <si>
-    <t>trihexyphenidyl: CHRM↓1,SIGMAR1?45;  tetrabenazine: SLC↓13;  levodopa: DRD↑34,SLC↓323,TAAR1?422,ADRA?2K</t>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K)</t>
   </si>
   <si>
     <t>tonic-clonic and  partial complex frontal seizures; decreased muscle tone, dystonia, athetosis</t>
   </si>
   <si>
-    <t>topiramate: CA↓1;  lamotrigine: SCN↓17K;  valproate</t>
-  </si>
-  <si>
-    <t>botox;  trihexyphenidyl: CHRM↓1,SIGMAR1?45;  baclofen: GABBR↑6K</t>
+    <t>topiramate: CA(↓1);  lamotrigine: SCN(↓17K);  valproate</t>
+  </si>
+  <si>
+    <t>botox;  trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  baclofen: GABBR(↑6K)</t>
   </si>
   <si>
     <t>GTCs; chorea;  dystonia;  ballism;  oro-facio-lingual dyskinesia</t>
   </si>
   <si>
-    <t>clonidine: NISCH?9,ADRA↑23,SLC↓550;  benzhexol: CHRM↓1,SIGMAR1?45</t>
-  </si>
-  <si>
-    <t>midazolam: CYP3A4?2K,SLC?3K</t>
+    <t>clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  benzhexol: CHRM(↓1),SIGMAR1(?45)</t>
+  </si>
+  <si>
+    <t>midazolam: CYP3A4(?2K),SLC(?3K)</t>
   </si>
   <si>
     <t>28668776</t>
@@ -358,7 +358,7 @@
     <t>hyperkinetic movements; generalized disabling tremor</t>
   </si>
   <si>
-    <t>trihexyphenidyl: CHRM↓1,SIGMAR1?45;  clonazepam: GABR↑1</t>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  clonazepam: GABR(↑1)</t>
   </si>
   <si>
     <t>31190250</t>
@@ -367,10 +367,10 @@
     <t>dystonic storm; chorea, ballismus,  orofacial dyskinesia, dystonia</t>
   </si>
   <si>
-    <t>levodopa: DRD↑34,SLC↓323,TAAR1?422,ADRA?2K;  clonazepam: GABR↑1;  bromocriptine: ADRA?1,DRD?4,HTR?5</t>
-  </si>
-  <si>
-    <t>chlorpromazine: ADRA↓1,DRD↓2,HTR↓3,HRH↓3,CHRM↓18,SLC?19</t>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clonazepam: GABR(↑1);  bromocriptine: ADRA(?1),DRD(?4),HTR(?5)</t>
+  </si>
+  <si>
+    <t>chlorpromazine: ADRA(↓1),DRD(↓2),HTR(↓3),HRH(↓3),CHRM(↓18),SLC(?19)</t>
   </si>
   <si>
     <t>29661126</t>
@@ -382,10 +382,10 @@
     <t>chorea</t>
   </si>
   <si>
-    <t>midazolam: CYP3A4?2K,SLC?3K;  propofol: HTR?950,SLC?9K,CA?19K;  dexmedetomidine: ADRA↑1,NISCH?50</t>
-  </si>
-  <si>
-    <t>clonidine: NISCH?9,ADRA↑23,SLC↓550;  clonazepam: GABR↑1;  valproate;  bethanechol: CHRM↑97</t>
+    <t>midazolam: CYP3A4(?2K),SLC(?3K);  propofol: HTR(?950),SLC(?9K),CA(?19K);  dexmedetomidine: ADRA(↑1),NISCH(?50)</t>
+  </si>
+  <si>
+    <t>clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  clonazepam: GABR(↑1);  valproate;  bethanechol: CHRM(↑97)</t>
   </si>
   <si>
     <t>27068059</t>
@@ -397,13 +397,13 @@
     <t>chorea and  ballismus</t>
   </si>
   <si>
-    <t>risperidone: HTR↓1,DRD↓1,ADRA?1,HRH↓14,H1-0?14;  benzodiazepine: GABR↑1;  dexmedetomidine: ADRA↑1,NISCH?50</t>
+    <t>risperidone: HTR(↓1),DRD(↓1),ADRA(?1),HRH(↓14),H1-0(?14);  benzodiazepine: GABR(↑1);  dexmedetomidine: ADRA(↑1),NISCH(?50)</t>
   </si>
   <si>
     <t>dystonia; severe chorea</t>
   </si>
   <si>
-    <t>trihexyphenidyl: CHRM↓1,SIGMAR1?45;  tetrabenazine: SLC↓13</t>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13)</t>
   </si>
   <si>
     <t>30838255</t>
@@ -415,7 +415,7 @@
     <t>26060304</t>
   </si>
   <si>
-    <t>clonidine: NISCH?9,ADRA↑23,SLC↓550;  clonazepam: GABR↑1</t>
+    <t>clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  clonazepam: GABR(↑1)</t>
   </si>
   <si>
     <t>mobile dystonia  with myoclonic jerks</t>
@@ -439,10 +439,10 @@
     <t>EOEE (infantile spasms); hand  stereotypies</t>
   </si>
   <si>
-    <t>prednisone: NR3C↑521</t>
-  </si>
-  <si>
-    <t>clonazepam: GABR↑1;  valproate</t>
+    <t>prednisone: NR3C(↑521)</t>
+  </si>
+  <si>
+    <t>clonazepam: GABR(↑1);  valproate</t>
   </si>
   <si>
     <t>L228P</t>
@@ -460,7 +460,7 @@
     <t>EOEE; stereotypic  spasm-like  movements</t>
   </si>
   <si>
-    <t>lamotrigine: SCN↓17K;  phenobarbitone;  vigabatrine: ABAT?300K,GABBR↑weak,SLC↓weak</t>
+    <t>lamotrigine: SCN(↓17K);  phenobarbitone;  vigabatrine: ABAT(?300K),GABBR(↑weak),SLC(↓weak)</t>
   </si>
   <si>
     <t>28503590</t>
@@ -472,7 +472,7 @@
     <t>choreathetosis  and orofacial  dyskinesia</t>
   </si>
   <si>
-    <t>pimozide: DRD↓1,HTR↓1,KCN↓18,SLC?69;  midazolam: CYP3A4?2K,SLC?3K;  fentanyl: OPR↑2</t>
+    <t>pimozide: DRD(↓1),HTR(↓1),KCN(↓18),SLC(?69);  midazolam: CYP3A4(?2K),SLC(?3K);  fentanyl: OPR(↑2)</t>
   </si>
   <si>
     <t>kd</t>
@@ -493,16 +493,16 @@
     <t>dystonic and  dyskinetic  features; chorea</t>
   </si>
   <si>
-    <t>trihexyphenidyl: CHRM↓1,SIGMAR1?45;  tetrabenazine: SLC↓13;  clonazepam: GABR↑1;  pimozide: DRD↓1,HTR↓1,KCN↓18,SLC?69;  amitriptyline: HRH↓1,CHRM↓1,SLC↓3,HTR↓3,ADRA?4,DRD?89</t>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  pimozide: DRD(↓1),HTR(↓1),KCN(↓18),SLC(?69);  amitriptyline: HRH(↓1),CHRM(↓1),SLC(↓3),HTR(↓3),ADRA(?4),DRD(?89)</t>
   </si>
   <si>
     <t>chorea;  hemiballism; dystonia;  oro-facio-lingual dyskinesia</t>
   </si>
   <si>
-    <t>tetrabenazine: SLC↓13;  clonazepam: GABR↑1;  botox;  phenobarbital</t>
-  </si>
-  <si>
-    <t>levodopa: DRD↑34,SLC↓323,TAAR1?422,ADRA?2K;  clobazam: GABR↑205;  ketamine: GRI↓420,DRD↑10K,OPR↑10K,SLC↓10K,CHRM?10K,HTR?10K,HRH?10K,SIGMAR1?10K,GLUTAMATE KAINATE?10K;  baclofen: GABBR↑6K;  clonidine: NISCH?9,ADRA↑23,SLC↓550;  diazepam: GABR↑8;  prednisolone: NR3C↑2,SERPINA6?31;  dexmedetomidine: ADRA↑1,NISCH?50;  benzhexol: CHRM↓1,SIGMAR1?45;  midazolam: CYP3A4?2K,SLC?3K</t>
+    <t>tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  botox;  phenobarbital</t>
+  </si>
+  <si>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clobazam: GABR(↑205);  ketamine: GRI(↓420),DRD(↑10K),OPR(↑10K),SLC(↓10K),CHRM(?10K),HTR(?10K),HRH(?10K),SIGMAR1(?10K),GLUTAMATE KAINATE(?10K);  baclofen: GABBR(↑6K);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  diazepam: GABR(↑8);  prednisolone: NR3C(↑2),SERPINA6(?31);  dexmedetomidine: ADRA(↑1),NISCH(?50);  benzhexol: CHRM(↓1),SIGMAR1(?45);  midazolam: CYP3A4(?2K),SLC(?3K)</t>
   </si>
   <si>
     <t>hypotonia;  dystonic  features.</t>
@@ -529,31 +529,31 @@
     <t>chorea;  dystonia;  hemiballism;  oro-facio-lingual dyskinesia</t>
   </si>
   <si>
-    <t>tetrabenazine: SLC↓13;  phenobarbital</t>
-  </si>
-  <si>
-    <t>levodopa: DRD↑34,SLC↓323,TAAR1?422,ADRA?2K;  clobazam: GABR↑205;  botox;  immunoglobulin;  carbamazepine: DRD?10K,HTR?10K,AVPR1B?10K,SCN↓32K,HRH?55K;  clonidine: NISCH?9,ADRA↑23,SLC↓550;  biotin;  acetazolamide: CA↓1;  nitrazepam: HRH?10K;  prednisolone: NR3C↑2,SERPINA6?31;  lorazepam: GABR↑3;  benzhexol: CHRM↓1,SIGMAR1?45;  midazolam: CYP3A4?2K,SLC?3K</t>
+    <t>tetrabenazine: SLC(↓13);  phenobarbital</t>
+  </si>
+  <si>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clobazam: GABR(↑205);  botox;  immunoglobulin;  carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  biotin;  acetazolamide: CA(↓1);  nitrazepam: HRH(?10K);  prednisolone: NR3C(↑2),SERPINA6(?31);  lorazepam: GABR(↑3);  benzhexol: CHRM(↓1),SIGMAR1(?45);  midazolam: CYP3A4(?2K),SLC(?3K)</t>
   </si>
   <si>
     <t>chorea  and  ballismus</t>
   </si>
   <si>
-    <t>trazodone: HTR?6,ADRA↓27,HRH↓42,SLC↓102,DRD?353,TMEM97?536;  clonidine: NISCH?9,ADRA↑23,SLC↓550;  clonazepam: GABR↑1</t>
-  </si>
-  <si>
-    <t>clobazam: GABR↑205;  haloperidol: SIGMAR1?1,DRD↓2,ADRA?8,TMEM97?14,HTR↓23;  tetrabenazine: SLC↓13;  clonazepam: GABR↑1;  baclofen: GABBR↑6K;  diazepam: GABR↑8</t>
-  </si>
-  <si>
-    <t>topiramate: CA↓1;  clonidine: NISCH?9,ADRA↑23,SLC↓550;  valproate;  levetiracetam: SV2A?10K</t>
+    <t>trazodone: HTR(?6),ADRA(↓27),HRH(↓42),SLC(↓102),DRD(?353),TMEM97(?536);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  clonazepam: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205);  haloperidol: SIGMAR1(?1),DRD(↓2),ADRA(?8),TMEM97(?14),HTR(↓23);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  baclofen: GABBR(↑6K);  diazepam: GABR(↑8)</t>
+  </si>
+  <si>
+    <t>topiramate: CA(↓1);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  valproate;  levetiracetam: SV2A(?10K)</t>
   </si>
   <si>
     <t>mild  dyskinesia first,  then generalized  chorea</t>
   </si>
   <si>
-    <t>diazepam: GABR↑8;  tetrabenazine: SLC↓13</t>
-  </si>
-  <si>
-    <t>oxcarbazepine: SCN?80K;  clonazepam: GABR↑1</t>
+    <t>diazepam: GABR(↑8);  tetrabenazine: SLC(↓13)</t>
+  </si>
+  <si>
+    <t>oxcarbazepine: SCN(?80K);  clonazepam: GABR(↑1)</t>
   </si>
   <si>
     <t>dyskinesia,  global  developmental delays</t>
@@ -565,7 +565,7 @@
     <t>dystonia  chorea  ballismus hyperkynesia</t>
   </si>
   <si>
-    <t>levodopa: DRD↑34,SLC↓323,TAAR1?422,ADRA?2K;  trihexyphenidyl: CHRM↓1,SIGMAR1?45;  tetrabenazine: SLC↓13;  clonazepam: GABR↑1;  baclofen: GABBR↑6K;  phenobarbital;  nitrazepam: HRH?10K;  levetiracetam: SV2A?10K</t>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  baclofen: GABBR(↑6K);  phenobarbital;  nitrazepam: HRH(?10K);  levetiracetam: SV2A(?10K)</t>
   </si>
   <si>
     <t>31076915</t>
@@ -574,10 +574,10 @@
     <t>hyperkinetic spells;  choreo-ballistic  movements;  dystonia</t>
   </si>
   <si>
-    <t>flunitrazepam: GABR↑2</t>
-  </si>
-  <si>
-    <t>trihexyphenidyl: CHRM↓1,SIGMAR1?45;  tetrabenazine: SLC↓13;  baclofen: GABBR↑6K;  pimozide: DRD↓1,HTR↓1,KCN↓18,SLC?69</t>
+    <t>flunitrazepam: GABR(↑2)</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  baclofen: GABBR(↑6K);  pimozide: DRD(↓1),HTR(↓1),KCN(↓18),SLC(?69)</t>
   </si>
   <si>
     <t>A270H</t>
@@ -595,10 +595,10 @@
     <t>EOEE; poor head  and turn ctrl;  axial hypotonia; lower limbs hypertonia;  spasticity</t>
   </si>
   <si>
-    <t>melatonin: MTNR↑1,NQO2?42;  lamotrigine: SCN↓17K;  valproate</t>
-  </si>
-  <si>
-    <t>trihexyphenidyl: CHRM↓1,SIGMAR1?45</t>
+    <t>melatonin: MTNR(↑1),NQO2(?42);  lamotrigine: SCN(↓17K);  valproate</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45)</t>
   </si>
   <si>
     <t>F275S</t>
@@ -616,7 +616,7 @@
     <t>L284S</t>
   </si>
   <si>
-    <t>clobazam: GABR↑205;  fosphenytoin: CYP2C9?8K,SCN↓24K;  immunoglobulin;  prednisone: NR3C↑521;  pyridoxine;  rufinamide;  valproate;  zonisamide: CA↓5;  acth;  kd;  levetiracetam: SV2A?10K</t>
+    <t>clobazam: GABR(↑205);  fosphenytoin: CYP2C9(?8K),SCN(↓24K);  immunoglobulin;  prednisone: NR3C(↑521);  pyridoxine;  rufinamide;  valproate;  zonisamide: CA(↓5);  acth;  kd;  levetiracetam: SV2A(?10K)</t>
   </si>
   <si>
     <t>29961512</t>
@@ -625,7 +625,7 @@
     <t>Y291N</t>
   </si>
   <si>
-    <t>lacosamide: CA?331</t>
+    <t>lacosamide: CA(?331)</t>
   </si>
   <si>
     <t>I344del</t>

--- a/gnao1_therapy.xlsx
+++ b/gnao1_therapy.xlsx
@@ -15,7 +15,724 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="406">
+  <si>
+    <t>protein position</t>
+  </si>
+  <si>
+    <t>identical in paralogues</t>
+  </si>
+  <si>
+    <t>nearest interface [Å]</t>
+  </si>
+  <si>
+    <t>location schematic</t>
+  </si>
+  <si>
+    <t>protein modification</t>
+  </si>
+  <si>
+    <t>frequency (gnomAD)</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>symptom</t>
+  </si>
+  <si>
+    <t>effectiveness</t>
+  </si>
+  <si>
+    <t>drugs (direction, activity[uM])</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>pubmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    yes</t>
+  </si>
+  <si>
+    <t>substrate:5.9; AC:8.6</t>
+  </si>
+  <si>
+    <t>G40W</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>focal epilepsy</t>
+  </si>
+  <si>
+    <t>epilepsy</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205);  phenobarbital</t>
+  </si>
+  <si>
+    <t>ineffective</t>
+  </si>
+  <si>
+    <t>oxcarbazepine: SCN(?80K);  levetiracetam: SV2A(?10K)</t>
+  </si>
+  <si>
+    <t>movement disorder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>30682224</t>
+  </si>
+  <si>
+    <t>G40R</t>
+  </si>
+  <si>
+    <t>EOEE</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  phenobarbital</t>
+  </si>
+  <si>
+    <t>levetiracetam: SV2A(?10K)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>EOEE; bilateral  twitching  in upper  limbs</t>
+  </si>
+  <si>
+    <t>26485252</t>
+  </si>
+  <si>
+    <t>28817111</t>
+  </si>
+  <si>
+    <t>G40E</t>
+  </si>
+  <si>
+    <t>EOEE; spastic quad</t>
+  </si>
+  <si>
+    <t>EOEE; dystonia spasticity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    no</t>
+  </si>
+  <si>
+    <t>substrate:2.8; RGS:6.7</t>
+  </si>
+  <si>
+    <t>G42R</t>
+  </si>
+  <si>
+    <t>EOEE; choreoathetosis</t>
+  </si>
+  <si>
+    <t>25590979</t>
+  </si>
+  <si>
+    <t>substrate:2.6</t>
+  </si>
+  <si>
+    <t>G45E</t>
+  </si>
+  <si>
+    <t>EOEE, severe hypotonia</t>
+  </si>
+  <si>
+    <t>27343026</t>
+  </si>
+  <si>
+    <t>substrate:1.3; RGS:6.4</t>
+  </si>
+  <si>
+    <t>S47G</t>
+  </si>
+  <si>
+    <t>focal seizures; dystonia</t>
+  </si>
+  <si>
+    <t>tetrabenazine: SLC(↓13)</t>
+  </si>
+  <si>
+    <t>28357411</t>
+  </si>
+  <si>
+    <t>all &gt; 10</t>
+  </si>
+  <si>
+    <t>I56T</t>
+  </si>
+  <si>
+    <t>focal seizures; dyskinetic tongue movements;  upper limb dyskinesia</t>
+  </si>
+  <si>
+    <t>substrate:7.2; RGS:9.9</t>
+  </si>
+  <si>
+    <t>D174G</t>
+  </si>
+  <si>
+    <t>EOEE, tonic seizures</t>
+  </si>
+  <si>
+    <t>23993195</t>
+  </si>
+  <si>
+    <t>substrate:3.5; RGS:9.7</t>
+  </si>
+  <si>
+    <t>R177P</t>
+  </si>
+  <si>
+    <t>myoclonic seizures,  microcephaly, ataxia, spastic gait</t>
+  </si>
+  <si>
+    <t>vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  valproate</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>31394400</t>
+  </si>
+  <si>
+    <t>gbeta:5.2; AC:8.6</t>
+  </si>
+  <si>
+    <t>L199P</t>
+  </si>
+  <si>
+    <t>EOEE; orolingual  dyskinesia</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  hydroaltesone: NR3C(↑12),SERPINA6(?13);  valproate;  phenobarbital;  zonisamide: CA(↓5);  levetiracetam: SV2A(?10K)</t>
+  </si>
+  <si>
+    <t>27072799</t>
+  </si>
+  <si>
+    <t>substrate:5.9; RGS:6.6; AC:8.1; gbeta:8.2</t>
+  </si>
+  <si>
+    <t>G203R</t>
+  </si>
+  <si>
+    <t>EOEE; severe  choreoathetosis</t>
+  </si>
+  <si>
+    <t>seizures; chorea</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205)</t>
+  </si>
+  <si>
+    <t>zonisamide: CA(↓5)</t>
+  </si>
+  <si>
+    <t>clonazepam: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>28202424</t>
+  </si>
+  <si>
+    <t>EOEE; severe chorea</t>
+  </si>
+  <si>
+    <t>25966631</t>
+  </si>
+  <si>
+    <t>spasmlike tonic seizures, myoclonic seizures, dyskinetic movements</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205);  sulthiame: CA(?6);  levetiracetam: SV2A(?10K);  tiapride: DRD(↓14),ADRA(↓779)</t>
+  </si>
+  <si>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K)</t>
+  </si>
+  <si>
+    <t>28628939</t>
+  </si>
+  <si>
+    <t>bilateral tonic seizures, tonic–clonic generalized seizures, vegetative autonomic seizures; paroxysmal dystonias</t>
+  </si>
+  <si>
+    <t>lamotrigine: SCN(↓17K);  zonisamide: CA(↓5)</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  methylprednisolone: NR3C(↑5);  phenytoin: CYP2C9(?8K),SCN(↓24K);  vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  oxcarbazepine: SCN(?80K);  valproate;  phenobarbital;  levetiracetam: SV2A(?10K)</t>
+  </si>
+  <si>
+    <t>baclofen: GABBR(↑6K);  benzodiazepine: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  gabapentin: CACNA(↓59)</t>
+  </si>
+  <si>
+    <t>EOEE; dystonia;  paroxysmal  ballism;  chorea</t>
+  </si>
+  <si>
+    <t>topiramate: CA(↓1)</t>
+  </si>
+  <si>
+    <t>carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  phenobarbital;  benzodiazepine: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>30642806</t>
+  </si>
+  <si>
+    <t>EOEE; 4 limbs  dyskinesia;  chaotic  spontaneous  motility</t>
+  </si>
+  <si>
+    <t>phenobarbital</t>
+  </si>
+  <si>
+    <t>lorazepam: GABR(↑3);  tetrabenazine: SLC(↓13);  baclofen: GABBR(↑6K)</t>
+  </si>
+  <si>
+    <t>EOEE; lack of  psychomotor  development</t>
+  </si>
+  <si>
+    <t>vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  topiramate: CA(↓1);  levetiracetam: SV2A(?10K)</t>
+  </si>
+  <si>
+    <t>valproate</t>
+  </si>
+  <si>
+    <t>29429466</t>
+  </si>
+  <si>
+    <t>substrate:5.0; RGS:6.4; AC:7.5</t>
+  </si>
+  <si>
+    <t>G204R</t>
+  </si>
+  <si>
+    <t>EOEE; hypotonia; dystonic  posturing; chorea; ballism</t>
+  </si>
+  <si>
+    <t>tetrabenazine: SLC(↓13);  benzodiazepine: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>30103967</t>
+  </si>
+  <si>
+    <t>RGS:2.7; gbeta:4.5; AC:5.6</t>
+  </si>
+  <si>
+    <t>S207Y</t>
+  </si>
+  <si>
+    <t>motor delays  generalized  dystonia</t>
+  </si>
+  <si>
+    <t>botox</t>
+  </si>
+  <si>
+    <t>sinemet: DRD(↑34),SLC(↓323),TAAR1(?422),KDM4E(?1K),ADRA(?2K)</t>
+  </si>
+  <si>
+    <t>S207F</t>
+  </si>
+  <si>
+    <t>choreoathetosis dystonia bradykinesia</t>
+  </si>
+  <si>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  botox;  trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  pramipexole: DRD(↑2)</t>
+  </si>
+  <si>
+    <t>32044685</t>
+  </si>
+  <si>
+    <t>AC:3.4; gbeta:5.7; RGS:6.3; substrate:8.6</t>
+  </si>
+  <si>
+    <t>R209C</t>
+  </si>
+  <si>
+    <t>(?) hypotonia</t>
+  </si>
+  <si>
+    <t>GTCs; hyperkinetic</t>
+  </si>
+  <si>
+    <t>focal seizures; complex  stereotypies;  dyskinetic  motor pattern</t>
+  </si>
+  <si>
+    <t>focal dyscognitive  seizures; severe chorea    patient 3</t>
+  </si>
+  <si>
+    <t>trunk hypotonia; generalized choreo-ballistic hyperkinesia</t>
+  </si>
+  <si>
+    <t>haloperidol: SIGMAR1(?1),DRD(↓2),ADRA(?8),TMEM97(?14),HTR(↓23);  curare: CHRN(↓10K)</t>
+  </si>
+  <si>
+    <t>midazolam: CYP3A4(?2K),SLC(?3K);  propofol: HTR(?950),SLC(?9K),CA(?19K);  phenytoin: CYP2C9(?8K),SCN(↓24K);  baclofen: GABBR(↑6K);  clonazepam: GABR(↑1);  levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  tetrabenazine: SLC(↓13);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550)</t>
+  </si>
+  <si>
+    <t>dystona w  hyperkinetic features;  orofacial dyskinesia</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K)</t>
+  </si>
+  <si>
+    <t>tonic-clonic and  partial complex frontal seizures; decreased muscle tone, dystonia, athetosis</t>
+  </si>
+  <si>
+    <t>topiramate: CA(↓1);  lamotrigine: SCN(↓17K);  valproate</t>
+  </si>
+  <si>
+    <t>botox;  trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  baclofen: GABBR(↑6K)</t>
+  </si>
+  <si>
+    <t>GTCs; chorea;  dystonia;  ballism;  oro-facio-lingual dyskinesia</t>
+  </si>
+  <si>
+    <t>clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  benzhexol: CHRM(↓1),SIGMAR1(?45)</t>
+  </si>
+  <si>
+    <t>midazolam: CYP3A4(?2K),SLC(?3K)</t>
+  </si>
+  <si>
+    <t>28668776</t>
+  </si>
+  <si>
+    <t>hyperkinetic movements; generalized disabling tremor</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  clonazepam: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>31190250</t>
+  </si>
+  <si>
+    <t>dystonic storm; chorea, ballismus,  orofacial dyskinesia, dystonia</t>
+  </si>
+  <si>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clonazepam: GABR(↑1);  bromocriptine: ADRA(?1),DRD(?4),HTR(?5)</t>
+  </si>
+  <si>
+    <t>chlorpromazine: ADRA(↓1),DRD(↓2),HTR(↓3),HRH(↓3),CHRM(↓18),SLC(?19)</t>
+  </si>
+  <si>
+    <t>29661126</t>
+  </si>
+  <si>
+    <t>R209G</t>
+  </si>
+  <si>
+    <t>chorea</t>
+  </si>
+  <si>
+    <t>midazolam: CYP3A4(?2K),SLC(?3K);  propofol: HTR(?950),SLC(?9K),CA(?19K);  dexmedetomidine: ADRA(↑1),NISCH(?50)</t>
+  </si>
+  <si>
+    <t>clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  clonazepam: GABR(↑1);  valproate;  bethanechol: CHRM(↑97)</t>
+  </si>
+  <si>
+    <t>27068059</t>
+  </si>
+  <si>
+    <t>R209H</t>
+  </si>
+  <si>
+    <t>chorea and  ballismus</t>
+  </si>
+  <si>
+    <t>risperidone: HTR(↓1),DRD(↓1),ADRA(?1),HRH(↓14),H1-0(?14);  benzodiazepine: GABR(↑1);  dexmedetomidine: ADRA(↑1),NISCH(?50)</t>
+  </si>
+  <si>
+    <t>dystonia; severe chorea</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13)</t>
+  </si>
+  <si>
+    <t>30838255</t>
+  </si>
+  <si>
+    <t>severe choreathetosis</t>
+  </si>
+  <si>
+    <t>26060304</t>
+  </si>
+  <si>
+    <t>clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  clonazepam: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>mobile dystonia  with myoclonic jerks</t>
+  </si>
+  <si>
+    <t>27625011</t>
+  </si>
+  <si>
+    <t>R209L</t>
+  </si>
+  <si>
+    <t>GPCR:8.9; gbeta:9.0</t>
+  </si>
+  <si>
+    <t>A221D</t>
+  </si>
+  <si>
+    <t>dysarthia, dystonia,  tremor and  parkinsonsim</t>
+  </si>
+  <si>
+    <t>substrate:7.5</t>
+  </si>
+  <si>
+    <t>A227V</t>
+  </si>
+  <si>
+    <t>EOEE (infantile spasms); hand  stereotypies</t>
+  </si>
+  <si>
+    <t>prednisone: NR3C(↑521)</t>
+  </si>
+  <si>
+    <t>clonazepam: GABR(↑1);  valproate</t>
+  </si>
+  <si>
+    <t>L228P</t>
+  </si>
+  <si>
+    <t>EOEE, mild microcephaly, hypotonia</t>
+  </si>
+  <si>
+    <t>31054490</t>
+  </si>
+  <si>
+    <t>Y231C</t>
+  </si>
+  <si>
+    <t>EOEE; stereotypic  spasm-like  movements</t>
+  </si>
+  <si>
+    <t>lamotrigine: SCN(↓17K);  phenobarbitone;  vigabatrine: ABAT(?300K),GABBR(↑weak),SLC(↓weak)</t>
+  </si>
+  <si>
+    <t>28503590</t>
+  </si>
+  <si>
+    <t>substrate:9.4</t>
+  </si>
+  <si>
+    <t>Q233P</t>
+  </si>
+  <si>
+    <t>choreathetosis  and orofacial  dyskinesia</t>
+  </si>
+  <si>
+    <t>pimozide: DRD(↓1),HTR(↓1),KCN(↓18),SLC(?69);  midazolam: CYP3A4(?2K),SLC(?3K);  fentanyl: OPR(↑2)</t>
+  </si>
+  <si>
+    <t>kd</t>
+  </si>
+  <si>
+    <t>27278281</t>
+  </si>
+  <si>
+    <t>RGS:4.0; AC:8.0; substrate:8.4</t>
+  </si>
+  <si>
+    <t>E237K</t>
+  </si>
+  <si>
+    <t>global hypotonia; choreiform and dyskinetic movements</t>
+  </si>
+  <si>
+    <t>severe hypotonia; ballism; dystonia</t>
+  </si>
+  <si>
+    <t>dystonic and  dyskinetic  features; chorea</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  pimozide: DRD(↓1),HTR(↓1),KCN(↓18),SLC(?69);  amitriptyline: HRH(↓1),CHRM(↓1),SLC(↓3),HTR(↓3),ADRA(?4),DRD(?89)</t>
+  </si>
+  <si>
+    <t>chorea;  hemiballism; dystonia;  oro-facio-lingual dyskinesia</t>
+  </si>
+  <si>
+    <t>tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  botox;  phenobarbital</t>
+  </si>
+  <si>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clobazam: GABR(↑205);  ketamine: GRI(↓420),DRD(↑10K),OPR(↑10K),SLC(↓10K),CHRM(?10K),HTR(?10K),HRH(?10K),SIGMAR1(?10K),GLUTAMATE KAINATE(?10K);  baclofen: GABBR(↑6K);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  diazepam: GABR(↑8);  prednisolone: NR3C(↑2),SERPINA6(?31);  dexmedetomidine: ADRA(↑1),NISCH(?50);  benzhexol: CHRM(↓1),SIGMAR1(?45);  midazolam: CYP3A4(?2K),SLC(?3K)</t>
+  </si>
+  <si>
+    <t>hypotonia;  dystonic  features.</t>
+  </si>
+  <si>
+    <t>29935962</t>
+  </si>
+  <si>
+    <t>AC:4.7; RGS:8.8</t>
+  </si>
+  <si>
+    <t>E246G</t>
+  </si>
+  <si>
+    <t>GTCs and  focal seizures; dystonia, spasticity</t>
+  </si>
+  <si>
+    <t>E246K</t>
+  </si>
+  <si>
+    <t>2:100K</t>
+  </si>
+  <si>
+    <t>severe athetosis</t>
+  </si>
+  <si>
+    <t>dystonia</t>
+  </si>
+  <si>
+    <t>chorea;  dystonia;  hemiballism;  oro-facio-lingual dyskinesia</t>
+  </si>
+  <si>
+    <t>tetrabenazine: SLC(↓13);  phenobarbital</t>
+  </si>
+  <si>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clobazam: GABR(↑205);  botox;  immunoglobulin;  carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  biotin;  acetazolamide: CA(↓1);  nitrazepam: HRH(?10K);  prednisolone: NR3C(↑2),SERPINA6(?31);  lorazepam: GABR(↑3);  benzhexol: CHRM(↓1),SIGMAR1(?45);  midazolam: CYP3A4(?2K),SLC(?3K)</t>
+  </si>
+  <si>
+    <t>chorea  and  ballismus</t>
+  </si>
+  <si>
+    <t>trazodone: HTR(?6),ADRA(↓27),HRH(↓42),SLC(↓102),DRD(?353),TMEM97(?536);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  clonazepam: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205);  haloperidol: SIGMAR1(?1),DRD(↓2),ADRA(?8),TMEM97(?14),HTR(↓23);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  baclofen: GABBR(↑6K);  diazepam: GABR(↑8)</t>
+  </si>
+  <si>
+    <t>topiramate: CA(↓1);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  valproate;  levetiracetam: SV2A(?10K)</t>
+  </si>
+  <si>
+    <t>mild  dyskinesia first,  then generalized  chorea</t>
+  </si>
+  <si>
+    <t>diazepam: GABR(↑8);  tetrabenazine: SLC(↓13)</t>
+  </si>
+  <si>
+    <t>oxcarbazepine: SCN(?80K);  clonazepam: GABR(↑1)</t>
+  </si>
+  <si>
+    <t>dyskinesia,  global  developmental delays</t>
+  </si>
+  <si>
+    <t>29761117</t>
+  </si>
+  <si>
+    <t>dystonia  chorea  ballismus hyperkynesia</t>
+  </si>
+  <si>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  baclofen: GABBR(↑6K);  phenobarbital;  nitrazepam: HRH(?10K);  levetiracetam: SV2A(?10K)</t>
+  </si>
+  <si>
+    <t>31076915</t>
+  </si>
+  <si>
+    <t>hyperkinetic spells;  choreo-ballistic  movements;  dystonia</t>
+  </si>
+  <si>
+    <t>flunitrazepam: GABR(↑2)</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  baclofen: GABBR(↑6K);  pimozide: DRD(↓1),HTR(↓1),KCN(↓18),SLC(?69)</t>
+  </si>
+  <si>
+    <t>substrate:3.0</t>
+  </si>
+  <si>
+    <t>A270H</t>
+  </si>
+  <si>
+    <t>25262651</t>
+  </si>
+  <si>
+    <t>substrate:1.2</t>
+  </si>
+  <si>
+    <t>D273V</t>
+  </si>
+  <si>
+    <t>EOEE; Dyskinesia</t>
+  </si>
+  <si>
+    <t>EOEE; poor head  and turn ctrl;  axial hypotonia; lower limbs hypertonia;  spasticity</t>
+  </si>
+  <si>
+    <t>melatonin: MTNR(↑1),NQO2(?42);  lamotrigine: SCN(↓17K);  valproate</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl: CHRM(↓1),SIGMAR1(?45)</t>
+  </si>
+  <si>
+    <t>substrate:6.7</t>
+  </si>
+  <si>
+    <t>F275S</t>
+  </si>
+  <si>
+    <t>EOEE, generalized hypotonia</t>
+  </si>
+  <si>
+    <t>I279N</t>
+  </si>
+  <si>
+    <t>EOEE; choreoathetoid  movements,  akathisia</t>
+  </si>
+  <si>
+    <t>L284S</t>
+  </si>
+  <si>
+    <t>clobazam: GABR(↑205);  fosphenytoin: CYP2C9(?8K),SCN(↓24K);  immunoglobulin;  prednisone: NR3C(↑521);  pyridoxine;  rufinamide;  valproate;  zonisamide: CA(↓5);  acth;  kd;  levetiracetam: SV2A(?10K)</t>
+  </si>
+  <si>
+    <t>29961512</t>
+  </si>
+  <si>
+    <t>Y291N</t>
+  </si>
+  <si>
+    <t>lacosamide: CA(?331)</t>
+  </si>
+  <si>
+    <t>GPCR:1.7</t>
+  </si>
+  <si>
+    <t>I344del</t>
+  </si>
+  <si>
+    <t>one seizure; mild spasticity,  dystonia,  chorea,  dysarthria</t>
+  </si>
+  <si>
+    <t>GPCR:5.2; AC:8.5</t>
+  </si>
+  <si>
+    <t>R349 G352 delinsQGCA</t>
+  </si>
+  <si>
+    <t>atypical staring spells; oromotor apraxia</t>
+  </si>
+  <si>
+    <t>Mutation location within GNAO1 catalytic domain, schematic:</t>
+  </si>
+  <si>
+    <t>See also the Supplementary Video. E = epilepsy, MD = movement disorder.</t>
+  </si>
   <si>
     <t>Targeted protein families:</t>
   </si>
@@ -35,7 +752,7 @@
     <t>4-Aminobutyrate aminotransferase</t>
   </si>
   <si>
-    <t xml:space="preserve">    Wikipedia</t>
+    <t>Wikipedia</t>
   </si>
   <si>
     <t>ADRA</t>
@@ -53,7 +770,7 @@
     <t>CA</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Carbonic_anhydrase</t>
+    <t>Carbonic anhydrase</t>
   </si>
   <si>
     <t>CACNA</t>
@@ -134,7 +851,7 @@
     <t>Lysine-specific demethylase 4E</t>
   </si>
   <si>
-    <t xml:space="preserve">    Uniprot</t>
+    <t>Uniprot</t>
   </si>
   <si>
     <t>MTNR</t>
@@ -173,7 +890,7 @@
     <t>Serine peptidase inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">    NCBI</t>
+    <t>NCBI</t>
   </si>
   <si>
     <t>SIGMAR1</t>
@@ -522,7 +1239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +1261,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -570,12 +1295,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -584,6 +1315,1080 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="schematic_40.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="5267325"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="schematic_42.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="12620625"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="schematic_45.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="14639925"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="schematic_47.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="16659225"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="schematic_56.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="18678525"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="schematic_174.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="20697825"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="schematic_177.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="22717125"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="schematic_199.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="24736425"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="schematic_203.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="33423225"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="schematic_204.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="42910125"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="schematic_207.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="45881925"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="schematic_209.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="64208025"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="schematic_221.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="83296125"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="schematic_227.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="85315425"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="schematic_228.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="87334725"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="schematic_231.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="89354025"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="schematic_233.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="91373325"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="schematic_237.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="97202625"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="schematic_246.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="113966625"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="schematic_270.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="127720725"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="schematic_273.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="130692525"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="schematic_275.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="133778625"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="schematic_279.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="136750425"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="schematic_284.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="139836525"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="schematic_291.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="141855825"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="schematic_344.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="143875125"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="schematic_349.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="145894425"/>
+          <a:ext cx="3657600" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7315200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="schematic_legend.annotated.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="1238250"/>
+          <a:ext cx="7315200" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,19 +2676,4788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="40" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="40" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="40" customHeight="1">
+      <c r="A2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="40" customHeight="1">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="40" customHeight="1">
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="40" customHeight="1">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="40" customHeight="1">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="40" customHeight="1">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="40" customHeight="1">
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="40" customHeight="1">
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="40" customHeight="1">
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="40" customHeight="1">
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="40" customHeight="1">
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="40" customHeight="1">
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="40" customHeight="1">
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="40" customHeight="1">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="40" customHeight="1">
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="40" customHeight="1">
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="40" customHeight="1">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="40" customHeight="1">
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="40" customHeight="1">
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="40" customHeight="1">
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="40" customHeight="1">
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="40" customHeight="1">
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="40" customHeight="1">
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="40" customHeight="1">
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="40" customHeight="1">
+      <c r="A26">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="40" customHeight="1">
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="40" customHeight="1">
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="40" customHeight="1">
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="40" customHeight="1">
+      <c r="A30">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="40" customHeight="1">
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="40" customHeight="1">
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="40" customHeight="1">
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" ht="40" customHeight="1">
+      <c r="A34">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="40" customHeight="1">
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="40" customHeight="1">
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" ht="40" customHeight="1">
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" ht="40" customHeight="1">
+      <c r="A38">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="40" customHeight="1">
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" ht="40" customHeight="1">
+      <c r="H40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" ht="40" customHeight="1">
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" ht="40" customHeight="1">
+      <c r="A42">
+        <v>174</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="40" customHeight="1">
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" ht="40" customHeight="1">
+      <c r="H44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" ht="40" customHeight="1">
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" ht="40" customHeight="1">
+      <c r="A46">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="40" customHeight="1">
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" ht="40" customHeight="1">
+      <c r="H48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="40" customHeight="1">
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="40" customHeight="1">
+      <c r="A50">
+        <v>199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="40" customHeight="1">
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" ht="40" customHeight="1">
+      <c r="H52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="40" customHeight="1">
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" ht="40" customHeight="1">
+      <c r="A54">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="40" customHeight="1">
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="40" customHeight="1">
+      <c r="H56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="40" customHeight="1">
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" ht="40" customHeight="1">
+      <c r="G58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="40" customHeight="1">
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" ht="40" customHeight="1">
+      <c r="H60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="40" customHeight="1">
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="40" customHeight="1">
+      <c r="G62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="40" customHeight="1">
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" ht="40" customHeight="1">
+      <c r="H64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="7:12" ht="40" customHeight="1">
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="7:12" ht="40" customHeight="1">
+      <c r="G66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="7:12" ht="40" customHeight="1">
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="7:12" ht="40" customHeight="1">
+      <c r="H68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="7:12" ht="40" customHeight="1">
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="7:12" ht="40" customHeight="1">
+      <c r="G70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="7:12" ht="40" customHeight="1">
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="7:12" ht="40" customHeight="1">
+      <c r="H72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="7:12" ht="40" customHeight="1">
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="7:12" ht="40" customHeight="1">
+      <c r="G74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="7:12" ht="40" customHeight="1">
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="7:12" ht="40" customHeight="1">
+      <c r="H76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="7:12" ht="40" customHeight="1">
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="7:12" ht="40" customHeight="1">
+      <c r="G78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K78" t="s">
+        <v>30</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="7:12" ht="40" customHeight="1">
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="7:12" ht="40" customHeight="1">
+      <c r="H80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" ht="40" customHeight="1">
+      <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:12" ht="40" customHeight="1">
+      <c r="G82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K82" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="40" customHeight="1">
+      <c r="I83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" ht="40" customHeight="1">
+      <c r="H84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" ht="40" customHeight="1">
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" ht="40" customHeight="1">
+      <c r="A86">
+        <v>204</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" t="s">
+        <v>30</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="40" customHeight="1">
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:12" ht="40" customHeight="1">
+      <c r="H88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" ht="40" customHeight="1">
+      <c r="I89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" ht="40" customHeight="1">
+      <c r="A90">
+        <v>207</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="40" customHeight="1">
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" ht="40" customHeight="1">
+      <c r="H92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" ht="40" customHeight="1">
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12" ht="40" customHeight="1">
+      <c r="E94" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="40" customHeight="1">
+      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" ht="40" customHeight="1">
+      <c r="H96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" ht="40" customHeight="1">
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" ht="40" customHeight="1">
+      <c r="A98">
+        <v>209</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" t="s">
+        <v>24</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="40" customHeight="1">
+      <c r="I99" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="4"/>
+    </row>
+    <row r="100" spans="1:12" ht="40" customHeight="1">
+      <c r="H100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" ht="40" customHeight="1">
+      <c r="I101" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" ht="40" customHeight="1">
+      <c r="G102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K102" t="s">
+        <v>30</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="40" customHeight="1">
+      <c r="I103" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" ht="40" customHeight="1">
+      <c r="H104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L104" s="4"/>
+    </row>
+    <row r="105" spans="1:12" ht="40" customHeight="1">
+      <c r="I105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" ht="40" customHeight="1">
+      <c r="G106" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="40" customHeight="1">
+      <c r="I107" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L107" s="4"/>
+    </row>
+    <row r="108" spans="1:12" ht="40" customHeight="1">
+      <c r="H108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L108" s="4"/>
+    </row>
+    <row r="109" spans="1:12" ht="40" customHeight="1">
+      <c r="I109" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" ht="40" customHeight="1">
+      <c r="G110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" t="s">
+        <v>24</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="40" customHeight="1">
+      <c r="I111" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" ht="40" customHeight="1">
+      <c r="H112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="7:12" ht="40" customHeight="1">
+      <c r="I113" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L113" s="4"/>
+    </row>
+    <row r="114" spans="7:12" ht="40" customHeight="1">
+      <c r="G114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" t="s">
+        <v>24</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="7:12" ht="40" customHeight="1">
+      <c r="I115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="7:12" ht="40" customHeight="1">
+      <c r="H116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I116" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="7:12" ht="40" customHeight="1">
+      <c r="I117" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="7:12" ht="40" customHeight="1">
+      <c r="G118" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" t="s">
+        <v>24</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="7:12" ht="40" customHeight="1">
+      <c r="I119" t="s">
+        <v>20</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L119" s="4"/>
+    </row>
+    <row r="120" spans="7:12" ht="40" customHeight="1">
+      <c r="H120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" t="s">
+        <v>18</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="7:12" ht="40" customHeight="1">
+      <c r="I121" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" spans="7:12" ht="40" customHeight="1">
+      <c r="G122" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K122" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="7:12" ht="40" customHeight="1">
+      <c r="I123" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L123" s="4"/>
+    </row>
+    <row r="124" spans="7:12" ht="40" customHeight="1">
+      <c r="H124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I124" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L124" s="4"/>
+    </row>
+    <row r="125" spans="7:12" ht="40" customHeight="1">
+      <c r="I125" t="s">
+        <v>20</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="7:12" ht="40" customHeight="1">
+      <c r="G126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="7:12" ht="40" customHeight="1">
+      <c r="I127" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L127" s="4"/>
+    </row>
+    <row r="128" spans="7:12" ht="40" customHeight="1">
+      <c r="H128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L128" s="4"/>
+    </row>
+    <row r="129" spans="5:12" ht="40" customHeight="1">
+      <c r="I129" t="s">
+        <v>20</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L129" s="4"/>
+    </row>
+    <row r="130" spans="5:12" ht="40" customHeight="1">
+      <c r="G130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" t="s">
+        <v>24</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="5:12" ht="40" customHeight="1">
+      <c r="I131" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="5:12" ht="40" customHeight="1">
+      <c r="H132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I132" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="5:12" ht="40" customHeight="1">
+      <c r="I133" t="s">
+        <v>20</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L133" s="4"/>
+    </row>
+    <row r="134" spans="5:12" ht="40" customHeight="1">
+      <c r="G134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K134" t="s">
+        <v>30</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="5:12" ht="40" customHeight="1">
+      <c r="I135" t="s">
+        <v>20</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="5:12" ht="40" customHeight="1">
+      <c r="H136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I136" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L136" s="4"/>
+    </row>
+    <row r="137" spans="5:12" ht="40" customHeight="1">
+      <c r="I137" t="s">
+        <v>20</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L137" s="4"/>
+    </row>
+    <row r="138" spans="5:12" ht="40" customHeight="1">
+      <c r="E138" t="s">
+        <v>138</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K138" t="s">
+        <v>24</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="5:12" ht="40" customHeight="1">
+      <c r="I139" t="s">
+        <v>20</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L139" s="4"/>
+    </row>
+    <row r="140" spans="5:12" ht="40" customHeight="1">
+      <c r="H140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I140" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L140" s="4"/>
+    </row>
+    <row r="141" spans="5:12" ht="40" customHeight="1">
+      <c r="I141" t="s">
+        <v>20</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L141" s="4"/>
+    </row>
+    <row r="142" spans="5:12" ht="40" customHeight="1">
+      <c r="E142" t="s">
+        <v>143</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" t="s">
+        <v>18</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K142" t="s">
+        <v>30</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="5:12" ht="40" customHeight="1">
+      <c r="I143" t="s">
+        <v>20</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L143" s="4"/>
+    </row>
+    <row r="144" spans="5:12" ht="40" customHeight="1">
+      <c r="H144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L144" s="4"/>
+    </row>
+    <row r="145" spans="7:12" ht="40" customHeight="1">
+      <c r="I145" t="s">
+        <v>20</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L145" s="4"/>
+    </row>
+    <row r="146" spans="7:12" ht="40" customHeight="1">
+      <c r="G146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" t="s">
+        <v>18</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K146" t="s">
+        <v>30</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="7:12" ht="40" customHeight="1">
+      <c r="I147" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L147" s="4"/>
+    </row>
+    <row r="148" spans="7:12" ht="40" customHeight="1">
+      <c r="H148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I148" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L148" s="4"/>
+    </row>
+    <row r="149" spans="7:12" ht="40" customHeight="1">
+      <c r="I149" t="s">
+        <v>20</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L149" s="4"/>
+    </row>
+    <row r="150" spans="7:12" ht="40" customHeight="1">
+      <c r="G150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K150" t="s">
+        <v>30</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="7:12" ht="40" customHeight="1">
+      <c r="I151" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="7:12" ht="40" customHeight="1">
+      <c r="H152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L152" s="4"/>
+    </row>
+    <row r="153" spans="7:12" ht="40" customHeight="1">
+      <c r="I153" t="s">
+        <v>20</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L153" s="4"/>
+    </row>
+    <row r="154" spans="7:12" ht="40" customHeight="1">
+      <c r="G154" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" t="s">
+        <v>18</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K154" t="s">
+        <v>30</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="7:12" ht="40" customHeight="1">
+      <c r="I155" t="s">
+        <v>20</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L155" s="4"/>
+    </row>
+    <row r="156" spans="7:12" ht="40" customHeight="1">
+      <c r="H156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" t="s">
+        <v>18</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L156" s="4"/>
+    </row>
+    <row r="157" spans="7:12" ht="40" customHeight="1">
+      <c r="I157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L157" s="4"/>
+    </row>
+    <row r="158" spans="7:12" ht="40" customHeight="1">
+      <c r="G158" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" t="s">
+        <v>18</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K158" t="s">
+        <v>30</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="7:12" ht="40" customHeight="1">
+      <c r="I159" t="s">
+        <v>20</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L159" s="4"/>
+    </row>
+    <row r="160" spans="7:12" ht="40" customHeight="1">
+      <c r="H160" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I160" t="s">
+        <v>18</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L160" s="4"/>
+    </row>
+    <row r="161" spans="1:12" ht="40" customHeight="1">
+      <c r="I161" t="s">
+        <v>20</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L161" s="4"/>
+    </row>
+    <row r="162" spans="1:12" ht="40" customHeight="1">
+      <c r="E162" t="s">
+        <v>154</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K162" t="s">
+        <v>30</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="40" customHeight="1">
+      <c r="I163" t="s">
+        <v>20</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L163" s="4"/>
+    </row>
+    <row r="164" spans="1:12" ht="40" customHeight="1">
+      <c r="H164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I164" t="s">
+        <v>18</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L164" s="4"/>
+    </row>
+    <row r="165" spans="1:12" ht="40" customHeight="1">
+      <c r="I165" t="s">
+        <v>20</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L165" s="4"/>
+    </row>
+    <row r="166" spans="1:12" ht="40" customHeight="1">
+      <c r="A166">
+        <v>221</v>
+      </c>
+      <c r="B166" t="s">
+        <v>37</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E166" t="s">
+        <v>156</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I166" t="s">
+        <v>18</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K166" t="s">
+        <v>24</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="40" customHeight="1">
+      <c r="I167" t="s">
+        <v>20</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L167" s="4"/>
+    </row>
+    <row r="168" spans="1:12" ht="40" customHeight="1">
+      <c r="H168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I168" t="s">
+        <v>18</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L168" s="4"/>
+    </row>
+    <row r="169" spans="1:12" ht="40" customHeight="1">
+      <c r="I169" t="s">
+        <v>20</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L169" s="4"/>
+    </row>
+    <row r="170" spans="1:12" ht="40" customHeight="1">
+      <c r="A170">
+        <v>227</v>
+      </c>
+      <c r="B170" t="s">
+        <v>37</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E170" t="s">
+        <v>159</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I170" t="s">
+        <v>18</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K170" t="s">
+        <v>24</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="40" customHeight="1">
+      <c r="I171" t="s">
+        <v>20</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="1:12" ht="40" customHeight="1">
+      <c r="H172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I172" t="s">
+        <v>18</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="1:12" ht="40" customHeight="1">
+      <c r="I173" t="s">
+        <v>20</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="1:12" ht="40" customHeight="1">
+      <c r="A174">
+        <v>228</v>
+      </c>
+      <c r="B174" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E174" t="s">
+        <v>163</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" t="s">
+        <v>18</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K174" t="s">
+        <v>24</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="40" customHeight="1">
+      <c r="I175" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="1:12" ht="40" customHeight="1">
+      <c r="H176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I176" t="s">
+        <v>18</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="1:12" ht="40" customHeight="1">
+      <c r="I177" t="s">
+        <v>20</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="1:12" ht="40" customHeight="1">
+      <c r="A178">
+        <v>231</v>
+      </c>
+      <c r="B178" t="s">
+        <v>37</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E178" t="s">
+        <v>166</v>
+      </c>
+      <c r="F178" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" t="s">
+        <v>18</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K178" t="s">
+        <v>24</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="40" customHeight="1">
+      <c r="I179" t="s">
+        <v>20</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="1:12" ht="40" customHeight="1">
+      <c r="H180" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I180" t="s">
+        <v>18</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="1:12" ht="40" customHeight="1">
+      <c r="I181" t="s">
+        <v>20</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L181" s="4"/>
+    </row>
+    <row r="182" spans="1:12" ht="40" customHeight="1">
+      <c r="A182">
+        <v>233</v>
+      </c>
+      <c r="B182" t="s">
+        <v>37</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E182" t="s">
+        <v>171</v>
+      </c>
+      <c r="F182" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" t="s">
+        <v>18</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K182" t="s">
+        <v>24</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="40" customHeight="1">
+      <c r="I183" t="s">
+        <v>20</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L183" s="4"/>
+    </row>
+    <row r="184" spans="1:12" ht="40" customHeight="1">
+      <c r="H184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I184" t="s">
+        <v>18</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L184" s="4"/>
+    </row>
+    <row r="185" spans="1:12" ht="40" customHeight="1">
+      <c r="I185" t="s">
+        <v>20</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L185" s="4"/>
+    </row>
+    <row r="186" spans="1:12" ht="40" customHeight="1">
+      <c r="A186">
+        <v>237</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E186" t="s">
+        <v>177</v>
+      </c>
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" t="s">
+        <v>18</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K186" t="s">
+        <v>24</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="40" customHeight="1">
+      <c r="I187" t="s">
+        <v>20</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L187" s="4"/>
+    </row>
+    <row r="188" spans="1:12" ht="40" customHeight="1">
+      <c r="H188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I188" t="s">
+        <v>18</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L188" s="4"/>
+    </row>
+    <row r="189" spans="1:12" ht="40" customHeight="1">
+      <c r="I189" t="s">
+        <v>20</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L189" s="4"/>
+    </row>
+    <row r="190" spans="1:12" ht="40" customHeight="1">
+      <c r="G190" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I190" t="s">
+        <v>18</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K190" t="s">
+        <v>30</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="40" customHeight="1">
+      <c r="I191" t="s">
+        <v>20</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L191" s="4"/>
+    </row>
+    <row r="192" spans="1:12" ht="40" customHeight="1">
+      <c r="H192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I192" t="s">
+        <v>18</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L192" s="4"/>
+    </row>
+    <row r="193" spans="1:12" ht="40" customHeight="1">
+      <c r="I193" t="s">
+        <v>20</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L193" s="4"/>
+    </row>
+    <row r="194" spans="1:12" ht="40" customHeight="1">
+      <c r="G194" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" t="s">
+        <v>18</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K194" t="s">
+        <v>30</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="40" customHeight="1">
+      <c r="I195" t="s">
+        <v>20</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L195" s="4"/>
+    </row>
+    <row r="196" spans="1:12" ht="40" customHeight="1">
+      <c r="H196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I196" t="s">
+        <v>18</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L196" s="4"/>
+    </row>
+    <row r="197" spans="1:12" ht="40" customHeight="1">
+      <c r="I197" t="s">
+        <v>20</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L197" s="4"/>
+    </row>
+    <row r="198" spans="1:12" ht="40" customHeight="1">
+      <c r="G198" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I198" t="s">
+        <v>18</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K198" t="s">
+        <v>30</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="40" customHeight="1">
+      <c r="I199" t="s">
+        <v>20</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L199" s="4"/>
+    </row>
+    <row r="200" spans="1:12" ht="40" customHeight="1">
+      <c r="H200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I200" t="s">
+        <v>18</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L200" s="4"/>
+    </row>
+    <row r="201" spans="1:12" ht="40" customHeight="1">
+      <c r="I201" t="s">
+        <v>20</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L201" s="4"/>
+    </row>
+    <row r="202" spans="1:12" ht="40" customHeight="1">
+      <c r="G202" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I202" t="s">
+        <v>18</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K202" t="s">
+        <v>24</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="40" customHeight="1">
+      <c r="I203" t="s">
+        <v>20</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L203" s="4"/>
+    </row>
+    <row r="204" spans="1:12" ht="40" customHeight="1">
+      <c r="H204" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I204" t="s">
+        <v>18</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L204" s="4"/>
+    </row>
+    <row r="205" spans="1:12" ht="40" customHeight="1">
+      <c r="I205" t="s">
+        <v>20</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L205" s="4"/>
+    </row>
+    <row r="206" spans="1:12" ht="40" customHeight="1">
+      <c r="A206">
+        <v>246</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E206" t="s">
+        <v>188</v>
+      </c>
+      <c r="F206" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I206" t="s">
+        <v>18</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K206" t="s">
+        <v>30</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="40" customHeight="1">
+      <c r="I207" t="s">
+        <v>20</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L207" s="4"/>
+    </row>
+    <row r="208" spans="1:12" ht="40" customHeight="1">
+      <c r="H208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I208" t="s">
+        <v>18</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L208" s="4"/>
+    </row>
+    <row r="209" spans="5:12" ht="40" customHeight="1">
+      <c r="I209" t="s">
+        <v>20</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L209" s="4"/>
+    </row>
+    <row r="210" spans="5:12" ht="40" customHeight="1">
+      <c r="E210" t="s">
+        <v>190</v>
+      </c>
+      <c r="F210" t="s">
+        <v>191</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I210" t="s">
+        <v>18</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K210" t="s">
+        <v>24</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="211" spans="5:12" ht="40" customHeight="1">
+      <c r="I211" t="s">
+        <v>20</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L211" s="4"/>
+    </row>
+    <row r="212" spans="5:12" ht="40" customHeight="1">
+      <c r="H212" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I212" t="s">
+        <v>18</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L212" s="4"/>
+    </row>
+    <row r="213" spans="5:12" ht="40" customHeight="1">
+      <c r="I213" t="s">
+        <v>20</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L213" s="4"/>
+    </row>
+    <row r="214" spans="5:12" ht="40" customHeight="1">
+      <c r="G214" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I214" t="s">
+        <v>18</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K214" t="s">
+        <v>30</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="215" spans="5:12" ht="40" customHeight="1">
+      <c r="I215" t="s">
+        <v>20</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L215" s="4"/>
+    </row>
+    <row r="216" spans="5:12" ht="40" customHeight="1">
+      <c r="H216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I216" t="s">
+        <v>18</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L216" s="4"/>
+    </row>
+    <row r="217" spans="5:12" ht="40" customHeight="1">
+      <c r="I217" t="s">
+        <v>20</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L217" s="4"/>
+    </row>
+    <row r="218" spans="5:12" ht="40" customHeight="1">
+      <c r="G218" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I218" t="s">
+        <v>18</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K218" t="s">
+        <v>24</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="219" spans="5:12" ht="40" customHeight="1">
+      <c r="I219" t="s">
+        <v>20</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L219" s="4"/>
+    </row>
+    <row r="220" spans="5:12" ht="40" customHeight="1">
+      <c r="H220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I220" t="s">
+        <v>18</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L220" s="4"/>
+    </row>
+    <row r="221" spans="5:12" ht="40" customHeight="1">
+      <c r="I221" t="s">
+        <v>20</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L221" s="4"/>
+    </row>
+    <row r="222" spans="5:12" ht="40" customHeight="1">
+      <c r="G222" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I222" t="s">
+        <v>18</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K222" t="s">
+        <v>24</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="5:12" ht="40" customHeight="1">
+      <c r="I223" t="s">
+        <v>20</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L223" s="4"/>
+    </row>
+    <row r="224" spans="5:12" ht="40" customHeight="1">
+      <c r="H224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I224" t="s">
+        <v>18</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L224" s="4"/>
+    </row>
+    <row r="225" spans="7:12" ht="40" customHeight="1">
+      <c r="I225" t="s">
+        <v>20</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L225" s="4"/>
+    </row>
+    <row r="226" spans="7:12" ht="40" customHeight="1">
+      <c r="G226" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I226" t="s">
+        <v>18</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K226" t="s">
+        <v>30</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="227" spans="7:12" ht="40" customHeight="1">
+      <c r="I227" t="s">
+        <v>20</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L227" s="4"/>
+    </row>
+    <row r="228" spans="7:12" ht="40" customHeight="1">
+      <c r="H228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I228" t="s">
+        <v>18</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L228" s="4"/>
+    </row>
+    <row r="229" spans="7:12" ht="40" customHeight="1">
+      <c r="I229" t="s">
+        <v>20</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L229" s="4"/>
+    </row>
+    <row r="230" spans="7:12" ht="40" customHeight="1">
+      <c r="G230" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I230" t="s">
+        <v>18</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K230" t="s">
+        <v>24</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="231" spans="7:12" ht="40" customHeight="1">
+      <c r="I231" t="s">
+        <v>20</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L231" s="4"/>
+    </row>
+    <row r="232" spans="7:12" ht="40" customHeight="1">
+      <c r="H232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I232" t="s">
+        <v>18</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L232" s="4"/>
+    </row>
+    <row r="233" spans="7:12" ht="40" customHeight="1">
+      <c r="I233" t="s">
+        <v>20</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L233" s="4"/>
+    </row>
+    <row r="234" spans="7:12" ht="40" customHeight="1">
+      <c r="G234" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I234" t="s">
+        <v>18</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K234" t="s">
+        <v>24</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="7:12" ht="40" customHeight="1">
+      <c r="I235" t="s">
+        <v>20</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L235" s="4"/>
+    </row>
+    <row r="236" spans="7:12" ht="40" customHeight="1">
+      <c r="H236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I236" t="s">
+        <v>18</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L236" s="4"/>
+    </row>
+    <row r="237" spans="7:12" ht="40" customHeight="1">
+      <c r="I237" t="s">
+        <v>20</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L237" s="4"/>
+    </row>
+    <row r="238" spans="7:12" ht="40" customHeight="1">
+      <c r="G238" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K238" t="s">
+        <v>30</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="239" spans="7:12" ht="40" customHeight="1">
+      <c r="I239" t="s">
+        <v>20</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L239" s="4"/>
+    </row>
+    <row r="240" spans="7:12" ht="40" customHeight="1">
+      <c r="H240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I240" t="s">
+        <v>18</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L240" s="4"/>
+    </row>
+    <row r="241" spans="1:12" ht="40" customHeight="1">
+      <c r="I241" t="s">
+        <v>20</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L241" s="4"/>
+    </row>
+    <row r="242" spans="1:12" ht="40" customHeight="1">
+      <c r="G242" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I242" t="s">
+        <v>18</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K242" t="s">
+        <v>24</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="40" customHeight="1">
+      <c r="I243" t="s">
+        <v>20</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L243" s="4"/>
+    </row>
+    <row r="244" spans="1:12" ht="40" customHeight="1">
+      <c r="H244" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I244" t="s">
+        <v>18</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L244" s="4"/>
+    </row>
+    <row r="245" spans="1:12" ht="40" customHeight="1">
+      <c r="I245" t="s">
+        <v>20</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L245" s="4"/>
+    </row>
+    <row r="246" spans="1:12" ht="40" customHeight="1">
+      <c r="G246" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I246" t="s">
+        <v>18</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K246" t="s">
+        <v>24</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="40" customHeight="1">
+      <c r="I247" t="s">
+        <v>20</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L247" s="4"/>
+    </row>
+    <row r="248" spans="1:12" ht="40" customHeight="1">
+      <c r="H248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I248" t="s">
+        <v>18</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L248" s="4"/>
+    </row>
+    <row r="249" spans="1:12" ht="40" customHeight="1">
+      <c r="I249" t="s">
+        <v>20</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L249" s="4"/>
+    </row>
+    <row r="250" spans="1:12" ht="40" customHeight="1">
+      <c r="G250" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I250" t="s">
+        <v>18</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K250" t="s">
+        <v>24</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="40" customHeight="1">
+      <c r="I251" t="s">
+        <v>20</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L251" s="4"/>
+    </row>
+    <row r="252" spans="1:12" ht="40" customHeight="1">
+      <c r="H252" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I252" t="s">
+        <v>18</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L252" s="4"/>
+    </row>
+    <row r="253" spans="1:12" ht="40" customHeight="1">
+      <c r="I253" t="s">
+        <v>20</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L253" s="4"/>
+    </row>
+    <row r="254" spans="1:12" ht="40" customHeight="1">
+      <c r="A254">
+        <v>270</v>
+      </c>
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E254" t="s">
+        <v>213</v>
+      </c>
+      <c r="F254" t="s">
+        <v>15</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I254" t="s">
+        <v>18</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K254" t="s">
+        <v>24</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="40" customHeight="1">
+      <c r="I255" t="s">
+        <v>20</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L255" s="4"/>
+    </row>
+    <row r="256" spans="1:12" ht="40" customHeight="1">
+      <c r="H256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I256" t="s">
+        <v>18</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L256" s="4"/>
+    </row>
+    <row r="257" spans="1:12" ht="40" customHeight="1">
+      <c r="I257" t="s">
+        <v>20</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L257" s="4"/>
+    </row>
+    <row r="258" spans="1:12" ht="40" customHeight="1">
+      <c r="A258">
+        <v>273</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E258" t="s">
+        <v>216</v>
+      </c>
+      <c r="F258" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I258" t="s">
+        <v>18</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K258" t="s">
+        <v>24</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="40" customHeight="1">
+      <c r="I259" t="s">
+        <v>20</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L259" s="4"/>
+    </row>
+    <row r="260" spans="1:12" ht="40" customHeight="1">
+      <c r="H260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I260" t="s">
+        <v>18</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L260" s="4"/>
+    </row>
+    <row r="261" spans="1:12" ht="40" customHeight="1">
+      <c r="I261" t="s">
+        <v>20</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L261" s="4"/>
+    </row>
+    <row r="262" spans="1:12" ht="40" customHeight="1">
+      <c r="G262" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I262" t="s">
+        <v>18</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K262" t="s">
+        <v>24</v>
+      </c>
+      <c r="L262" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="40" customHeight="1">
+      <c r="I263" t="s">
+        <v>20</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L263" s="4"/>
+    </row>
+    <row r="264" spans="1:12" ht="40" customHeight="1">
+      <c r="H264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I264" t="s">
+        <v>18</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L264" s="4"/>
+    </row>
+    <row r="265" spans="1:12" ht="40" customHeight="1">
+      <c r="I265" t="s">
+        <v>20</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L265" s="4"/>
+    </row>
+    <row r="266" spans="1:12" ht="40" customHeight="1">
+      <c r="A266">
+        <v>275</v>
+      </c>
+      <c r="B266" t="s">
+        <v>37</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E266" t="s">
+        <v>222</v>
+      </c>
+      <c r="F266" t="s">
+        <v>15</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I266" t="s">
+        <v>18</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K266" t="s">
+        <v>24</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="40" customHeight="1">
+      <c r="I267" t="s">
+        <v>20</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L267" s="4"/>
+    </row>
+    <row r="268" spans="1:12" ht="40" customHeight="1">
+      <c r="H268" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I268" t="s">
+        <v>18</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L268" s="4"/>
+    </row>
+    <row r="269" spans="1:12" ht="40" customHeight="1">
+      <c r="I269" t="s">
+        <v>20</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L269" s="4"/>
+    </row>
+    <row r="270" spans="1:12" ht="40" customHeight="1">
+      <c r="A270">
+        <v>279</v>
+      </c>
+      <c r="B270" t="s">
+        <v>37</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E270" t="s">
+        <v>224</v>
+      </c>
+      <c r="F270" t="s">
+        <v>15</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I270" t="s">
+        <v>18</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K270" t="s">
+        <v>24</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="40" customHeight="1">
+      <c r="I271" t="s">
+        <v>20</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L271" s="4"/>
+    </row>
+    <row r="272" spans="1:12" ht="40" customHeight="1">
+      <c r="H272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I272" t="s">
+        <v>18</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L272" s="4"/>
+    </row>
+    <row r="273" spans="1:12" ht="40" customHeight="1">
+      <c r="I273" t="s">
+        <v>20</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L273" s="4"/>
+    </row>
+    <row r="274" spans="1:12" ht="40" customHeight="1">
+      <c r="G274" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I274" t="s">
+        <v>18</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K274" t="s">
+        <v>24</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="40" customHeight="1">
+      <c r="I275" t="s">
+        <v>20</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L275" s="4"/>
+    </row>
+    <row r="276" spans="1:12" ht="40" customHeight="1">
+      <c r="H276" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I276" t="s">
+        <v>18</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L276" s="4"/>
+    </row>
+    <row r="277" spans="1:12" ht="40" customHeight="1">
+      <c r="I277" t="s">
+        <v>20</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L277" s="4"/>
+    </row>
+    <row r="278" spans="1:12" ht="40" customHeight="1">
+      <c r="A278">
+        <v>284</v>
+      </c>
+      <c r="B278" t="s">
+        <v>37</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E278" t="s">
+        <v>226</v>
+      </c>
+      <c r="F278" t="s">
+        <v>15</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I278" t="s">
+        <v>18</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K278" t="s">
+        <v>24</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="40" customHeight="1">
+      <c r="I279" t="s">
+        <v>20</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L279" s="4"/>
+    </row>
+    <row r="280" spans="1:12" ht="40" customHeight="1">
+      <c r="H280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I280" t="s">
+        <v>18</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L280" s="4"/>
+    </row>
+    <row r="281" spans="1:12" ht="40" customHeight="1">
+      <c r="I281" t="s">
+        <v>20</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L281" s="4"/>
+    </row>
+    <row r="282" spans="1:12" ht="40" customHeight="1">
+      <c r="A282">
+        <v>291</v>
+      </c>
+      <c r="B282" t="s">
+        <v>37</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E282" t="s">
+        <v>229</v>
+      </c>
+      <c r="F282" t="s">
+        <v>15</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I282" t="s">
+        <v>18</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K282" t="s">
+        <v>24</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="40" customHeight="1">
+      <c r="I283" t="s">
+        <v>20</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L283" s="4"/>
+    </row>
+    <row r="284" spans="1:12" ht="40" customHeight="1">
+      <c r="H284" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I284" t="s">
+        <v>18</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L284" s="4"/>
+    </row>
+    <row r="285" spans="1:12" ht="40" customHeight="1">
+      <c r="I285" t="s">
+        <v>20</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L285" s="4"/>
+    </row>
+    <row r="286" spans="1:12" ht="40" customHeight="1">
+      <c r="A286">
+        <v>344</v>
+      </c>
+      <c r="B286" t="s">
+        <v>37</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E286" t="s">
+        <v>232</v>
+      </c>
+      <c r="F286" t="s">
+        <v>15</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I286" t="s">
+        <v>18</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K286" t="s">
+        <v>24</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="40" customHeight="1">
+      <c r="I287" t="s">
+        <v>20</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L287" s="4"/>
+    </row>
+    <row r="288" spans="1:12" ht="40" customHeight="1">
+      <c r="H288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I288" t="s">
+        <v>18</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L288" s="4"/>
+    </row>
+    <row r="289" spans="1:12" ht="40" customHeight="1">
+      <c r="I289" t="s">
+        <v>20</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L289" s="4"/>
+    </row>
+    <row r="290" spans="1:12" ht="40" customHeight="1">
+      <c r="A290">
+        <v>349</v>
+      </c>
+      <c r="B290" t="s">
+        <v>37</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E290" t="s">
+        <v>235</v>
+      </c>
+      <c r="F290" t="s">
+        <v>15</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I290" t="s">
+        <v>18</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K290" t="s">
+        <v>24</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="40" customHeight="1">
+      <c r="I291" t="s">
+        <v>20</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L291" s="4"/>
+    </row>
+    <row r="292" spans="1:12" ht="40" customHeight="1">
+      <c r="H292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I292" t="s">
+        <v>18</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L292" s="4"/>
+    </row>
+    <row r="293" spans="1:12" ht="40" customHeight="1">
+      <c r="I293" t="s">
+        <v>20</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L293" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="541">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="D2:D25"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="F6:F17"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="A54:A85"/>
+    <mergeCell ref="B54:B85"/>
+    <mergeCell ref="C54:C85"/>
+    <mergeCell ref="D54:D85"/>
+    <mergeCell ref="E54:E85"/>
+    <mergeCell ref="F54:F85"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="K54:K57"/>
+    <mergeCell ref="L54:L57"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="L62:L65"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="L70:L73"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="K82:K85"/>
+    <mergeCell ref="L82:L85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="L86:L89"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C90:C97"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="L90:L93"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="K94:K97"/>
+    <mergeCell ref="L94:L97"/>
+    <mergeCell ref="A98:A165"/>
+    <mergeCell ref="B98:B165"/>
+    <mergeCell ref="C98:C165"/>
+    <mergeCell ref="D98:D165"/>
+    <mergeCell ref="E98:E137"/>
+    <mergeCell ref="F98:F137"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="K98:K101"/>
+    <mergeCell ref="L98:L101"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="K102:K105"/>
+    <mergeCell ref="L102:L105"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="K106:K109"/>
+    <mergeCell ref="L106:L109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="L110:L113"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="L118:L121"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="L130:L133"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="L134:L137"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="E142:E161"/>
+    <mergeCell ref="F142:F161"/>
+    <mergeCell ref="G142:G145"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="G146:G149"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="L146:L149"/>
+    <mergeCell ref="G150:G153"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="L150:L153"/>
+    <mergeCell ref="G154:G157"/>
+    <mergeCell ref="H154:H155"/>
+    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="L154:L157"/>
+    <mergeCell ref="G158:G161"/>
+    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="L158:L161"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="F162:F165"/>
+    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="K162:K165"/>
+    <mergeCell ref="L162:L165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="D166:D169"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F169"/>
+    <mergeCell ref="G166:G169"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="L166:L169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="G170:G173"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="K170:K173"/>
+    <mergeCell ref="L170:L173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="F174:F177"/>
+    <mergeCell ref="G174:G177"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="K174:K177"/>
+    <mergeCell ref="L174:L177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="G178:G181"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="K178:K181"/>
+    <mergeCell ref="L178:L181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F185"/>
+    <mergeCell ref="G182:G185"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="H184:H185"/>
+    <mergeCell ref="K182:K185"/>
+    <mergeCell ref="L182:L185"/>
+    <mergeCell ref="A186:A205"/>
+    <mergeCell ref="B186:B205"/>
+    <mergeCell ref="C186:C205"/>
+    <mergeCell ref="D186:D205"/>
+    <mergeCell ref="E186:E205"/>
+    <mergeCell ref="F186:F205"/>
+    <mergeCell ref="G186:G189"/>
+    <mergeCell ref="H186:H187"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="K186:K189"/>
+    <mergeCell ref="L186:L189"/>
+    <mergeCell ref="G190:G193"/>
+    <mergeCell ref="H190:H191"/>
+    <mergeCell ref="H192:H193"/>
+    <mergeCell ref="K190:K193"/>
+    <mergeCell ref="L190:L193"/>
+    <mergeCell ref="G194:G197"/>
+    <mergeCell ref="H194:H195"/>
+    <mergeCell ref="H196:H197"/>
+    <mergeCell ref="K194:K197"/>
+    <mergeCell ref="L194:L197"/>
+    <mergeCell ref="G198:G201"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="H200:H201"/>
+    <mergeCell ref="K198:K201"/>
+    <mergeCell ref="L198:L201"/>
+    <mergeCell ref="G202:G205"/>
+    <mergeCell ref="H202:H203"/>
+    <mergeCell ref="H204:H205"/>
+    <mergeCell ref="K202:K205"/>
+    <mergeCell ref="L202:L205"/>
+    <mergeCell ref="A206:A253"/>
+    <mergeCell ref="B206:B253"/>
+    <mergeCell ref="C206:C253"/>
+    <mergeCell ref="D206:D253"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="F206:F209"/>
+    <mergeCell ref="G206:G209"/>
+    <mergeCell ref="H206:H207"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="K206:K209"/>
+    <mergeCell ref="L206:L209"/>
+    <mergeCell ref="E210:E253"/>
+    <mergeCell ref="F210:F253"/>
+    <mergeCell ref="G210:G213"/>
+    <mergeCell ref="H210:H211"/>
+    <mergeCell ref="H212:H213"/>
+    <mergeCell ref="K210:K213"/>
+    <mergeCell ref="L210:L213"/>
+    <mergeCell ref="G214:G217"/>
+    <mergeCell ref="H214:H215"/>
+    <mergeCell ref="H216:H217"/>
+    <mergeCell ref="K214:K217"/>
+    <mergeCell ref="L214:L217"/>
+    <mergeCell ref="G218:G221"/>
+    <mergeCell ref="H218:H219"/>
+    <mergeCell ref="H220:H221"/>
+    <mergeCell ref="K218:K221"/>
+    <mergeCell ref="L218:L221"/>
+    <mergeCell ref="G222:G225"/>
+    <mergeCell ref="H222:H223"/>
+    <mergeCell ref="H224:H225"/>
+    <mergeCell ref="K222:K225"/>
+    <mergeCell ref="L222:L225"/>
+    <mergeCell ref="G226:G229"/>
+    <mergeCell ref="H226:H227"/>
+    <mergeCell ref="H228:H229"/>
+    <mergeCell ref="K226:K229"/>
+    <mergeCell ref="L226:L229"/>
+    <mergeCell ref="G230:G233"/>
+    <mergeCell ref="H230:H231"/>
+    <mergeCell ref="H232:H233"/>
+    <mergeCell ref="K230:K233"/>
+    <mergeCell ref="L230:L233"/>
+    <mergeCell ref="G234:G237"/>
+    <mergeCell ref="H234:H235"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="K234:K237"/>
+    <mergeCell ref="L234:L237"/>
+    <mergeCell ref="G238:G241"/>
+    <mergeCell ref="H238:H239"/>
+    <mergeCell ref="H240:H241"/>
+    <mergeCell ref="K238:K241"/>
+    <mergeCell ref="L238:L241"/>
+    <mergeCell ref="G242:G245"/>
+    <mergeCell ref="H242:H243"/>
+    <mergeCell ref="H244:H245"/>
+    <mergeCell ref="K242:K245"/>
+    <mergeCell ref="L242:L245"/>
+    <mergeCell ref="G246:G249"/>
+    <mergeCell ref="H246:H247"/>
+    <mergeCell ref="H248:H249"/>
+    <mergeCell ref="K246:K249"/>
+    <mergeCell ref="L246:L249"/>
+    <mergeCell ref="G250:G253"/>
+    <mergeCell ref="H250:H251"/>
+    <mergeCell ref="H252:H253"/>
+    <mergeCell ref="K250:K253"/>
+    <mergeCell ref="L250:L253"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="D254:D257"/>
+    <mergeCell ref="E254:E257"/>
+    <mergeCell ref="F254:F257"/>
+    <mergeCell ref="G254:G257"/>
+    <mergeCell ref="H254:H255"/>
+    <mergeCell ref="H256:H257"/>
+    <mergeCell ref="K254:K257"/>
+    <mergeCell ref="L254:L257"/>
+    <mergeCell ref="A258:A265"/>
+    <mergeCell ref="B258:B265"/>
+    <mergeCell ref="C258:C265"/>
+    <mergeCell ref="D258:D265"/>
+    <mergeCell ref="E258:E265"/>
+    <mergeCell ref="F258:F265"/>
+    <mergeCell ref="G258:G261"/>
+    <mergeCell ref="H258:H259"/>
+    <mergeCell ref="H260:H261"/>
+    <mergeCell ref="K258:K261"/>
+    <mergeCell ref="L258:L261"/>
+    <mergeCell ref="G262:G265"/>
+    <mergeCell ref="H262:H263"/>
+    <mergeCell ref="H264:H265"/>
+    <mergeCell ref="K262:K265"/>
+    <mergeCell ref="L262:L265"/>
+    <mergeCell ref="A266:A269"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="C266:C269"/>
+    <mergeCell ref="D266:D269"/>
+    <mergeCell ref="E266:E269"/>
+    <mergeCell ref="F266:F269"/>
+    <mergeCell ref="G266:G269"/>
+    <mergeCell ref="H266:H267"/>
+    <mergeCell ref="H268:H269"/>
+    <mergeCell ref="K266:K269"/>
+    <mergeCell ref="L266:L269"/>
+    <mergeCell ref="A270:A277"/>
+    <mergeCell ref="B270:B277"/>
+    <mergeCell ref="C270:C277"/>
+    <mergeCell ref="D270:D277"/>
+    <mergeCell ref="E270:E277"/>
+    <mergeCell ref="F270:F277"/>
+    <mergeCell ref="G270:G273"/>
+    <mergeCell ref="H270:H271"/>
+    <mergeCell ref="H272:H273"/>
+    <mergeCell ref="K270:K273"/>
+    <mergeCell ref="L270:L273"/>
+    <mergeCell ref="G274:G277"/>
+    <mergeCell ref="H274:H275"/>
+    <mergeCell ref="H276:H277"/>
+    <mergeCell ref="K274:K277"/>
+    <mergeCell ref="L274:L277"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="F278:F281"/>
+    <mergeCell ref="G278:G281"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="H280:H281"/>
+    <mergeCell ref="K278:K281"/>
+    <mergeCell ref="L278:L281"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="C282:C285"/>
+    <mergeCell ref="D282:D285"/>
+    <mergeCell ref="E282:E285"/>
+    <mergeCell ref="F282:F285"/>
+    <mergeCell ref="G282:G285"/>
+    <mergeCell ref="H282:H283"/>
+    <mergeCell ref="H284:H285"/>
+    <mergeCell ref="K282:K285"/>
+    <mergeCell ref="L282:L285"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="C286:C289"/>
+    <mergeCell ref="D286:D289"/>
+    <mergeCell ref="E286:E289"/>
+    <mergeCell ref="F286:F289"/>
+    <mergeCell ref="G286:G289"/>
+    <mergeCell ref="H286:H287"/>
+    <mergeCell ref="H288:H289"/>
+    <mergeCell ref="K286:K289"/>
+    <mergeCell ref="L286:L289"/>
+    <mergeCell ref="A290:A293"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="D290:D293"/>
+    <mergeCell ref="E290:E293"/>
+    <mergeCell ref="F290:F293"/>
+    <mergeCell ref="G290:G293"/>
+    <mergeCell ref="H290:H291"/>
+    <mergeCell ref="H292:H293"/>
+    <mergeCell ref="K290:K293"/>
+    <mergeCell ref="L290:L293"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L6" r:id="rId2"/>
+    <hyperlink ref="L10" r:id="rId3"/>
+    <hyperlink ref="L14" r:id="rId4"/>
+    <hyperlink ref="L18" r:id="rId5"/>
+    <hyperlink ref="L22" r:id="rId6"/>
+    <hyperlink ref="L26" r:id="rId7"/>
+    <hyperlink ref="L30" r:id="rId8"/>
+    <hyperlink ref="L34" r:id="rId9"/>
+    <hyperlink ref="L38" r:id="rId10"/>
+    <hyperlink ref="L42" r:id="rId11"/>
+    <hyperlink ref="L46" r:id="rId12"/>
+    <hyperlink ref="L50" r:id="rId13"/>
+    <hyperlink ref="L54" r:id="rId14"/>
+    <hyperlink ref="L58" r:id="rId15"/>
+    <hyperlink ref="L62" r:id="rId16"/>
+    <hyperlink ref="L66" r:id="rId17"/>
+    <hyperlink ref="L70" r:id="rId18"/>
+    <hyperlink ref="L74" r:id="rId19"/>
+    <hyperlink ref="L78" r:id="rId20"/>
+    <hyperlink ref="L82" r:id="rId21"/>
+    <hyperlink ref="L86" r:id="rId22"/>
+    <hyperlink ref="L90" r:id="rId23"/>
+    <hyperlink ref="L94" r:id="rId24"/>
+    <hyperlink ref="L98" r:id="rId25"/>
+    <hyperlink ref="L102" r:id="rId26"/>
+    <hyperlink ref="L106" r:id="rId27"/>
+    <hyperlink ref="L110" r:id="rId28"/>
+    <hyperlink ref="L114" r:id="rId29"/>
+    <hyperlink ref="L118" r:id="rId30"/>
+    <hyperlink ref="L122" r:id="rId31"/>
+    <hyperlink ref="L126" r:id="rId32"/>
+    <hyperlink ref="L130" r:id="rId33"/>
+    <hyperlink ref="L134" r:id="rId34"/>
+    <hyperlink ref="L138" r:id="rId35"/>
+    <hyperlink ref="L142" r:id="rId36"/>
+    <hyperlink ref="L146" r:id="rId37"/>
+    <hyperlink ref="L150" r:id="rId38"/>
+    <hyperlink ref="L154" r:id="rId39"/>
+    <hyperlink ref="L158" r:id="rId40"/>
+    <hyperlink ref="L162" r:id="rId41"/>
+    <hyperlink ref="L166" r:id="rId42"/>
+    <hyperlink ref="L170" r:id="rId43"/>
+    <hyperlink ref="L174" r:id="rId44"/>
+    <hyperlink ref="L178" r:id="rId45"/>
+    <hyperlink ref="L182" r:id="rId46"/>
+    <hyperlink ref="L186" r:id="rId47"/>
+    <hyperlink ref="L190" r:id="rId48"/>
+    <hyperlink ref="L194" r:id="rId49"/>
+    <hyperlink ref="L198" r:id="rId50"/>
+    <hyperlink ref="L202" r:id="rId51"/>
+    <hyperlink ref="L206" r:id="rId52"/>
+    <hyperlink ref="L210" r:id="rId53"/>
+    <hyperlink ref="L214" r:id="rId54"/>
+    <hyperlink ref="L218" r:id="rId55"/>
+    <hyperlink ref="L222" r:id="rId56"/>
+    <hyperlink ref="L226" r:id="rId57"/>
+    <hyperlink ref="L230" r:id="rId58"/>
+    <hyperlink ref="L234" r:id="rId59"/>
+    <hyperlink ref="L238" r:id="rId60"/>
+    <hyperlink ref="L242" r:id="rId61"/>
+    <hyperlink ref="L246" r:id="rId62"/>
+    <hyperlink ref="L250" r:id="rId63"/>
+    <hyperlink ref="L254" r:id="rId64"/>
+    <hyperlink ref="L258" r:id="rId65"/>
+    <hyperlink ref="L262" r:id="rId66"/>
+    <hyperlink ref="L266" r:id="rId67"/>
+    <hyperlink ref="L270" r:id="rId68"/>
+    <hyperlink ref="L274" r:id="rId69"/>
+    <hyperlink ref="L278" r:id="rId70"/>
+    <hyperlink ref="L282" r:id="rId71"/>
+    <hyperlink ref="L286" r:id="rId72"/>
+    <hyperlink ref="L290" r:id="rId73"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId74"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D84"/>
+  <dimension ref="A3:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -893,1133 +7467,1143 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="160.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>242</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>244</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>247</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>251</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>253</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>255</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>257</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>259</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>261</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>263</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>265</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>267</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>269</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>271</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>273</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>275</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>277</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>280</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>282</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>284</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>286</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>288</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>290</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
+        <v>293</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>295</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>297</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>299</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>67</v>
+      <c r="A34" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
+      <c r="A35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>307</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>309</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>311</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>314</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>317</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>319</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>321</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>323</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>323</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>325</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>327</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>317</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>329</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>332</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>334</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>334</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>336</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>336</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>338</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>340</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>340</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>343</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>345</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>347</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>347</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>350</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>352</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>352</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>354</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>354</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>354</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>356</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>356</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>358</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>358</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>358</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>361</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>363</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>363</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>365</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>365</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>367</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>369</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>133</v>
+        <v>369</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>136</v>
+        <v>371</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>374</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>138</v>
+        <v>343</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>376</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>376</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>140</v>
+        <v>376</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>378</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>142</v>
+        <v>378</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>380</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>380</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>382</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>382</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>146</v>
+        <v>382</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>148</v>
+        <v>384</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>151</v>
+        <v>386</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>389</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>389</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>153</v>
+        <v>361</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>155</v>
+        <v>391</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>393</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>393</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>157</v>
+        <v>393</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>159</v>
+        <v>395</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>397</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>397</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>161</v>
+        <v>397</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>76</v>
+        <v>399</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>163</v>
+        <v>314</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>401</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>401</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>163</v>
+        <v>401</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>403</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>401</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>166</v>
+        <v>401</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>404</v>
+      </c>
+      <c r="B85" t="s">
+        <v>404</v>
+      </c>
+      <c r="C85" t="s">
+        <v>404</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:E32"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C18" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C22" r:id="rId20"/>
-    <hyperlink ref="C23" r:id="rId21"/>
-    <hyperlink ref="C24" r:id="rId22"/>
-    <hyperlink ref="C25" r:id="rId23"/>
-    <hyperlink ref="C26" r:id="rId24"/>
-    <hyperlink ref="C27" r:id="rId25"/>
-    <hyperlink ref="C28" r:id="rId26"/>
-    <hyperlink ref="C29" r:id="rId27"/>
-    <hyperlink ref="C30" r:id="rId28"/>
-    <hyperlink ref="C31" r:id="rId29"/>
-    <hyperlink ref="D35" r:id="rId30"/>
-    <hyperlink ref="D36" r:id="rId31"/>
-    <hyperlink ref="D37" r:id="rId32"/>
-    <hyperlink ref="D38" r:id="rId33"/>
-    <hyperlink ref="D39" r:id="rId34"/>
-    <hyperlink ref="D40" r:id="rId35"/>
-    <hyperlink ref="D41" r:id="rId36"/>
-    <hyperlink ref="D42" r:id="rId37"/>
-    <hyperlink ref="D43" r:id="rId38"/>
-    <hyperlink ref="D44" r:id="rId39"/>
-    <hyperlink ref="D45" r:id="rId40"/>
-    <hyperlink ref="D46" r:id="rId41"/>
-    <hyperlink ref="D47" r:id="rId42"/>
-    <hyperlink ref="D48" r:id="rId43"/>
-    <hyperlink ref="D49" r:id="rId44"/>
-    <hyperlink ref="D50" r:id="rId45"/>
-    <hyperlink ref="D51" r:id="rId46"/>
-    <hyperlink ref="D52" r:id="rId47"/>
-    <hyperlink ref="D53" r:id="rId48"/>
-    <hyperlink ref="D54" r:id="rId49"/>
-    <hyperlink ref="D55" r:id="rId50"/>
-    <hyperlink ref="D56" r:id="rId51"/>
-    <hyperlink ref="D57" r:id="rId52"/>
-    <hyperlink ref="D58" r:id="rId53"/>
-    <hyperlink ref="D59" r:id="rId54"/>
-    <hyperlink ref="D60" r:id="rId55"/>
-    <hyperlink ref="D61" r:id="rId56"/>
-    <hyperlink ref="D62" r:id="rId57"/>
-    <hyperlink ref="D63" r:id="rId58"/>
-    <hyperlink ref="D64" r:id="rId59"/>
-    <hyperlink ref="D65" r:id="rId60"/>
-    <hyperlink ref="D66" r:id="rId61"/>
-    <hyperlink ref="D67" r:id="rId62"/>
-    <hyperlink ref="D68" r:id="rId63"/>
-    <hyperlink ref="D69" r:id="rId64"/>
-    <hyperlink ref="D70" r:id="rId65"/>
-    <hyperlink ref="D71" r:id="rId66"/>
-    <hyperlink ref="D72" r:id="rId67"/>
-    <hyperlink ref="D73" r:id="rId68"/>
-    <hyperlink ref="D74" r:id="rId69"/>
-    <hyperlink ref="D75" r:id="rId70"/>
-    <hyperlink ref="D76" r:id="rId71"/>
-    <hyperlink ref="D77" r:id="rId72"/>
-    <hyperlink ref="D78" r:id="rId73"/>
-    <hyperlink ref="D79" r:id="rId74"/>
-    <hyperlink ref="D80" r:id="rId75"/>
-    <hyperlink ref="D81" r:id="rId76"/>
-    <hyperlink ref="D82" r:id="rId77"/>
-    <hyperlink ref="D83" r:id="rId78"/>
-    <hyperlink ref="D84" r:id="rId79"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="C20" r:id="rId16"/>
+    <hyperlink ref="C21" r:id="rId17"/>
+    <hyperlink ref="C22" r:id="rId18"/>
+    <hyperlink ref="C23" r:id="rId19"/>
+    <hyperlink ref="C24" r:id="rId20"/>
+    <hyperlink ref="C25" r:id="rId21"/>
+    <hyperlink ref="C26" r:id="rId22"/>
+    <hyperlink ref="C27" r:id="rId23"/>
+    <hyperlink ref="C28" r:id="rId24"/>
+    <hyperlink ref="C29" r:id="rId25"/>
+    <hyperlink ref="C30" r:id="rId26"/>
+    <hyperlink ref="C31" r:id="rId27"/>
+    <hyperlink ref="C32" r:id="rId28"/>
+    <hyperlink ref="D36" r:id="rId29"/>
+    <hyperlink ref="D37" r:id="rId30"/>
+    <hyperlink ref="D38" r:id="rId31"/>
+    <hyperlink ref="D39" r:id="rId32"/>
+    <hyperlink ref="D40" r:id="rId33"/>
+    <hyperlink ref="D41" r:id="rId34"/>
+    <hyperlink ref="D42" r:id="rId35"/>
+    <hyperlink ref="D43" r:id="rId36"/>
+    <hyperlink ref="D44" r:id="rId37"/>
+    <hyperlink ref="D45" r:id="rId38"/>
+    <hyperlink ref="D46" r:id="rId39"/>
+    <hyperlink ref="D47" r:id="rId40"/>
+    <hyperlink ref="D48" r:id="rId41"/>
+    <hyperlink ref="D49" r:id="rId42"/>
+    <hyperlink ref="D50" r:id="rId43"/>
+    <hyperlink ref="D51" r:id="rId44"/>
+    <hyperlink ref="D52" r:id="rId45"/>
+    <hyperlink ref="D53" r:id="rId46"/>
+    <hyperlink ref="D54" r:id="rId47"/>
+    <hyperlink ref="D55" r:id="rId48"/>
+    <hyperlink ref="D56" r:id="rId49"/>
+    <hyperlink ref="D57" r:id="rId50"/>
+    <hyperlink ref="D58" r:id="rId51"/>
+    <hyperlink ref="D59" r:id="rId52"/>
+    <hyperlink ref="D60" r:id="rId53"/>
+    <hyperlink ref="D61" r:id="rId54"/>
+    <hyperlink ref="D62" r:id="rId55"/>
+    <hyperlink ref="D63" r:id="rId56"/>
+    <hyperlink ref="D64" r:id="rId57"/>
+    <hyperlink ref="D65" r:id="rId58"/>
+    <hyperlink ref="D66" r:id="rId59"/>
+    <hyperlink ref="D67" r:id="rId60"/>
+    <hyperlink ref="D68" r:id="rId61"/>
+    <hyperlink ref="D69" r:id="rId62"/>
+    <hyperlink ref="D70" r:id="rId63"/>
+    <hyperlink ref="D71" r:id="rId64"/>
+    <hyperlink ref="D72" r:id="rId65"/>
+    <hyperlink ref="D73" r:id="rId66"/>
+    <hyperlink ref="D74" r:id="rId67"/>
+    <hyperlink ref="D75" r:id="rId68"/>
+    <hyperlink ref="D76" r:id="rId69"/>
+    <hyperlink ref="D77" r:id="rId70"/>
+    <hyperlink ref="D78" r:id="rId71"/>
+    <hyperlink ref="D79" r:id="rId72"/>
+    <hyperlink ref="D80" r:id="rId73"/>
+    <hyperlink ref="D81" r:id="rId74"/>
+    <hyperlink ref="D82" r:id="rId75"/>
+    <hyperlink ref="D83" r:id="rId76"/>
+    <hyperlink ref="D84" r:id="rId77"/>
+    <hyperlink ref="D85" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId79"/>
 </worksheet>
 </file>
--- a/gnao1_therapy.xlsx
+++ b/gnao1_therapy.xlsx
@@ -80,7 +80,7 @@
     <t>ineffective</t>
   </si>
   <si>
-    <t>oxcarbazepine: SCN(?80K);  levetiracetam: SV2A(?10K)</t>
+    <t>oxcarbazepine: SCN(?80K);  levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>movement disorder</t>
@@ -104,7 +104,7 @@
     <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  phenobarbital</t>
   </si>
   <si>
-    <t>levetiracetam: SV2A(?10K)</t>
+    <t>levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>M</t>
@@ -200,7 +200,7 @@
     <t>myoclonic seizures,  microcephaly, ataxia, spastic gait</t>
   </si>
   <si>
-    <t>vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  valproate</t>
+    <t>vigabatrin: ABAT(↓300K),GABBR(↑weak),SLC(↓weak);  valproate</t>
   </si>
   <si>
     <t>-</t>
@@ -218,7 +218,7 @@
     <t>EOEE; orolingual  dyskinesia</t>
   </si>
   <si>
-    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  hydroaltesone: NR3C(↑12),SERPINA6(?13);  valproate;  phenobarbital;  zonisamide: CA(↓5);  levetiracetam: SV2A(?10K)</t>
+    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  vigabatrin: ABAT(↓300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  hydroaltesone: NR3C(↑12),SERPINA6(?13);  valproate;  phenobarbital;  zonisamide: CA(↓5);  levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>27072799</t>
@@ -257,7 +257,7 @@
     <t>spasmlike tonic seizures, myoclonic seizures, dyskinetic movements</t>
   </si>
   <si>
-    <t>clobazam: GABR(↑205);  sulthiame: CA(?6);  levetiracetam: SV2A(?10K);  tiapride: DRD(↓14),ADRA(↓779)</t>
+    <t>clobazam: GABR(↑205);  sulthiame: CA(?6);  levetiracetam: SV2A(↑10K);  tiapride: DRD(↓14),ADRA(↓779)</t>
   </si>
   <si>
     <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K)</t>
@@ -272,7 +272,7 @@
     <t>lamotrigine: SCN(↓17K);  zonisamide: CA(↓5)</t>
   </si>
   <si>
-    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  methylprednisolone: NR3C(↑5);  phenytoin: CYP2C9(?8K),SCN(↓24K);  vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  oxcarbazepine: SCN(?80K);  valproate;  phenobarbital;  levetiracetam: SV2A(?10K)</t>
+    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  methylprednisolone: NR3C(↑5);  phenytoin: CYP2C9(?8K),SCN(↓24K);  vigabatrin: ABAT(↓300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  oxcarbazepine: SCN(?80K);  valproate;  phenobarbital;  levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>baclofen: GABBR(↑6K);  benzodiazepine: GABR(↑1)</t>
@@ -305,7 +305,7 @@
     <t>EOEE; lack of  psychomotor  development</t>
   </si>
   <si>
-    <t>vigabatrin: ABAT(?300K),GABBR(↑weak),SLC(↓weak);  topiramate: CA(↓1);  levetiracetam: SV2A(?10K)</t>
+    <t>vigabatrin: ABAT(↓300K),GABBR(↑weak),SLC(↓weak);  topiramate: CA(↓1);  levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>valproate</t>
@@ -521,7 +521,7 @@
     <t>EOEE; stereotypic  spasm-like  movements</t>
   </si>
   <si>
-    <t>lamotrigine: SCN(↓17K);  phenobarbitone;  vigabatrine: ABAT(?300K),GABBR(↑weak),SLC(↓weak)</t>
+    <t>lamotrigine: SCN(↓17K);  phenobarbitone;  vigabatrine: ABAT(↓300K),GABBR(↑weak),SLC(↓weak)</t>
   </si>
   <si>
     <t>28503590</t>
@@ -617,7 +617,7 @@
     <t>clobazam: GABR(↑205);  haloperidol: SIGMAR1(?1),DRD(↓2),ADRA(?8),TMEM97(?14),HTR(↓23);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  baclofen: GABBR(↑6K);  diazepam: GABR(↑8)</t>
   </si>
   <si>
-    <t>topiramate: CA(↓1);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  valproate;  levetiracetam: SV2A(?10K)</t>
+    <t>topiramate: CA(↓1);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  valproate;  levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>mild  dyskinesia first,  then generalized  chorea</t>
@@ -638,7 +638,7 @@
     <t>dystonia  chorea  ballismus hyperkynesia</t>
   </si>
   <si>
-    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  baclofen: GABBR(↑6K);  phenobarbital;  nitrazepam: HRH(?10K);  levetiracetam: SV2A(?10K)</t>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  trihexyphenidyl: CHRM(↓1),SIGMAR1(?45);  tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  baclofen: GABBR(↑6K);  phenobarbital;  nitrazepam: HRH(?10K);  levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>31076915</t>
@@ -698,7 +698,7 @@
     <t>L284S</t>
   </si>
   <si>
-    <t>clobazam: GABR(↑205);  fosphenytoin: CYP2C9(?8K),SCN(↓24K);  immunoglobulin;  prednisone: NR3C(↑521);  pyridoxine;  rufinamide;  valproate;  zonisamide: CA(↓5);  acth;  kd;  levetiracetam: SV2A(?10K)</t>
+    <t>clobazam: GABR(↑205);  fosphenytoin: CYP2C9(?8K),SCN(↓24K);  immunoglobulin;  prednisone: NR3C(↑521);  pyridoxine;  rufinamide;  valproate;  zonisamide: CA(↓5);  acth;  kd;  levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>29961512</t>

--- a/gnao1_therapy.xlsx
+++ b/gnao1_therapy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="435">
   <si>
     <t>protein position</t>
   </si>
@@ -272,7 +272,7 @@
     <t>lamotrigine: SCN(↓17K);  zonisamide: CA(↓5)</t>
   </si>
   <si>
-    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  methylprednisolone: NR3C(↑5);  phenytoin: CYP2C9(?8K),SCN(↓24K);  vigabatrin: ABAT(↓300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  oxcarbazepine: SCN(?80K);  valproate;  phenobarbital;  levetiracetam: SV2A(↑10K)</t>
+    <t>clobazam: GABR(↑205);  topiramate: CA(↓1);  methylprednisolone: NR3C(↑5);  phenytoin: CYP(?8K),SCN(↓24K);  vigabatrin: ABAT(↓300K),GABBR(↑weak),SLC(↓weak);  lacosamide: CA(?331);  oxcarbazepine: SCN(?80K);  valproate;  phenobarbital;  levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>baclofen: GABBR(↑6K);  benzodiazepine: GABR(↑1)</t>
@@ -380,7 +380,7 @@
     <t>haloperidol: SIGMAR1(?1),DRD(↓2),ADRA(?8),TMEM97(?14),HTR(↓23);  curare: CHRN(↓10K)</t>
   </si>
   <si>
-    <t>midazolam: CYP3A4(?2K),SLC(?3K);  propofol: HTR(?950),SLC(?9K),CA(?19K);  phenytoin: CYP2C9(?8K),SCN(↓24K);  baclofen: GABBR(↑6K);  clonazepam: GABR(↑1);  levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  tetrabenazine: SLC(↓13);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550)</t>
+    <t>midazolam: CYP(?2K),SLC(?3K);  propofol: HTR(?950),SLC(?9K),CA(?19K);  phenytoin: CYP(?8K),SCN(↓24K);  baclofen: GABBR(↑6K);  clonazepam: GABR(↑1);  levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  tetrabenazine: SLC(↓13);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550)</t>
   </si>
   <si>
     <t>dystona w  hyperkinetic features;  orofacial dyskinesia</t>
@@ -404,7 +404,7 @@
     <t>clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  benzhexol: CHRM(↓1),SIGMAR1(?45)</t>
   </si>
   <si>
-    <t>midazolam: CYP3A4(?2K),SLC(?3K)</t>
+    <t>midazolam: CYP(?2K),SLC(?3K)</t>
   </si>
   <si>
     <t>28668776</t>
@@ -437,7 +437,7 @@
     <t>chorea</t>
   </si>
   <si>
-    <t>midazolam: CYP3A4(?2K),SLC(?3K);  propofol: HTR(?950),SLC(?9K),CA(?19K);  dexmedetomidine: ADRA(↑1),NISCH(?50)</t>
+    <t>midazolam: CYP(?2K),SLC(?3K);  propofol: HTR(?950),SLC(?9K),CA(?19K);  dexmedetomidine: ADRA(↑1),NISCH(?50)</t>
   </si>
   <si>
     <t>clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  clonazepam: GABR(↑1);  valproate;  bethanechol: CHRM(↑97)</t>
@@ -533,13 +533,13 @@
     <t>Q233P</t>
   </si>
   <si>
-    <t>choreathetosis  and orofacial  dyskinesia</t>
-  </si>
-  <si>
-    <t>pimozide: DRD(↓1),HTR(↓1),KCN(↓18),SLC(?69);  midazolam: CYP3A4(?2K),SLC(?3K);  fentanyl: OPR(↑2)</t>
-  </si>
-  <si>
-    <t>kd</t>
+    <t>hypotonia; choreathetosis and orofacial  dyskinesia</t>
+  </si>
+  <si>
+    <t>pimozide: DRD(↓1),HTR(↓1),KCN(↓18),SLC(?69);  midazolam: CYP(?2K),SLC(?3K);  fentanyl: OPR(↑2)</t>
+  </si>
+  <si>
+    <t>clonazepam: GABR(↑1);  haloperidol: SIGMAR1(?1),DRD(↓2),ADRA(?8),TMEM97(?14),HTR(↓23);  carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  acetazolamide: CA(↓1);  diazepam: GABR(↑8)</t>
   </si>
   <si>
     <t>27278281</t>
@@ -569,7 +569,7 @@
     <t>tetrabenazine: SLC(↓13);  clonazepam: GABR(↑1);  botox;  phenobarbital</t>
   </si>
   <si>
-    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clobazam: GABR(↑205);  ketamine: GRI(↓420),DRD(↑10K),OPR(↑10K),SLC(↓10K),CHRM(?10K),HTR(?10K),HRH(?10K),SIGMAR1(?10K),GLUTAMATE KAINATE(?10K);  baclofen: GABBR(↑6K);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  diazepam: GABR(↑8);  prednisolone: NR3C(↑2),SERPINA6(?31);  dexmedetomidine: ADRA(↑1),NISCH(?50);  benzhexol: CHRM(↓1),SIGMAR1(?45);  midazolam: CYP3A4(?2K),SLC(?3K)</t>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clobazam: GABR(↑205);  ketamine: GRI(↓420),DRD(↑10K),OPR(↑10K),SLC(↓10K),CHRM(?10K),HTR(?10K),HRH(?10K),SIGMAR1(?10K),GLUTAMATE KAINATE(?10K);  baclofen: GABBR(↑6K);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  diazepam: GABR(↑8);  prednisolone: NR3C(↑2),SERPINA6(?31);  dexmedetomidine: ADRA(↑1),NISCH(?50);  benzhexol: CHRM(↓1),SIGMAR1(?45);  midazolam: CYP(?2K),SLC(?3K)</t>
   </si>
   <si>
     <t>hypotonia;  dystonic  features.</t>
@@ -605,7 +605,7 @@
     <t>tetrabenazine: SLC(↓13);  phenobarbital</t>
   </si>
   <si>
-    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clobazam: GABR(↑205);  botox;  immunoglobulin;  carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  biotin;  acetazolamide: CA(↓1);  nitrazepam: HRH(?10K);  prednisolone: NR3C(↑2),SERPINA6(?31);  lorazepam: GABR(↑3);  benzhexol: CHRM(↓1),SIGMAR1(?45);  midazolam: CYP3A4(?2K),SLC(?3K)</t>
+    <t>levodopa: DRD(↑34),SLC(↓323),TAAR1(?422),ADRA(?2K);  clobazam: GABR(↑205);  botox;  immunoglobulin;  carbamazepine: DRD(?10K),HTR(?10K),AVPR1B(?10K),SCN(↓32K),HRH(?55K);  clonidine: NISCH(?9),ADRA(↑23),SLC(↓550);  biotin;  acetazolamide: CA(↓1);  nitrazepam: HRH(?10K);  prednisolone: NR3C(↑2),SERPINA6(?31);  lorazepam: GABR(↑3);  benzhexol: CHRM(↓1),SIGMAR1(?45);  midazolam: CYP(?2K),SLC(?3K)</t>
   </si>
   <si>
     <t>chorea  and  ballismus</t>
@@ -698,7 +698,7 @@
     <t>L284S</t>
   </si>
   <si>
-    <t>clobazam: GABR(↑205);  fosphenytoin: CYP2C9(?8K),SCN(↓24K);  immunoglobulin;  prednisone: NR3C(↑521);  pyridoxine;  rufinamide;  valproate;  zonisamide: CA(↓5);  acth;  kd;  levetiracetam: SV2A(↑10K)</t>
+    <t>clobazam: GABR(↑205);  fosphenytoin: CYP(?8K),SCN(↓24K);  immunoglobulin;  prednisone: NR3C(↑521);  pyridoxine;  rufinamide;  valproate;  zonisamide: CA(↓5);  acth;  kd;  levetiracetam: SV2A(↑10K)</t>
   </si>
   <si>
     <t>29961512</t>
@@ -743,6 +743,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>targeted by (direction, activity[uM])</t>
+  </si>
+  <si>
     <t>more info</t>
   </si>
   <si>
@@ -752,6 +755,9 @@
     <t>4-Aminobutyrate aminotransferase</t>
   </si>
   <si>
+    <t>vigabatrin(↓300K),vigabatrine(↓300K)</t>
+  </si>
+  <si>
     <t>Wikipedia</t>
   </si>
   <si>
@@ -761,96 +767,144 @@
     <t>alpha-adrenergic receptor</t>
   </si>
   <si>
+    <t>bromocriptine(?1),chlorpromazine(↓1),dexmedetomidine(↑1),risperidone(?1),amitriptyline(?4),haloperidol(?8),clonidine(↑23),trazodone(↓27),tiapride(↓779),levodopa(?2K),sinemet(?2K)</t>
+  </si>
+  <si>
     <t>AVPR1B</t>
   </si>
   <si>
     <t>Vasopressin V1b receptor</t>
   </si>
   <si>
+    <t>carbamazepine(?10K)</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
     <t>Carbonic anhydrase</t>
   </si>
   <si>
+    <t>acetazolamide(↓1),topiramate(↓1),zonisamide(↓5),sulthiame(?6),lacosamide(?331),propofol(?19K)</t>
+  </si>
+  <si>
     <t>CACNA</t>
   </si>
   <si>
     <t>Calcium voltage-gated channel subunit alpha</t>
   </si>
   <si>
+    <t>gabapentin(↓59)</t>
+  </si>
+  <si>
     <t>CHRM</t>
   </si>
   <si>
     <t>Muscarinic acetylcholine receptor</t>
   </si>
   <si>
+    <t>amitriptyline(↓1),benzhexol(↓1),trihexyphenidyl(↓1),chlorpromazine(↓18),bethanechol(↑97),ketamine(?10K)</t>
+  </si>
+  <si>
     <t>CHRN</t>
   </si>
   <si>
     <t>Neuronal acetylcholine receptor</t>
   </si>
   <si>
+    <t>curare(↓10K)</t>
+  </si>
+  <si>
     <t>CYP</t>
   </si>
   <si>
     <t>Cytochrome P450</t>
   </si>
   <si>
+    <t>midazolam(?2K),fosphenytoin(?8K),phenytoin(?8K)</t>
+  </si>
+  <si>
     <t>DRD</t>
   </si>
   <si>
     <t>Dopamine receptor</t>
   </si>
   <si>
+    <t>pimozide(↓1),risperidone(↓1),chlorpromazine(↓2),haloperidol(↓2),pramipexole(↑2),bromocriptine(?4),tiapride(↓14),levodopa(↑34),sinemet(↑34),amitriptyline(?89),trazodone(?353),carbamazepine(?10K),ketamine(↑10K)</t>
+  </si>
+  <si>
     <t>GABBR</t>
   </si>
   <si>
     <t>GABA-B receptor</t>
   </si>
   <si>
+    <t>baclofen(↑6K),vigabatrin(↑weak),vigabatrine(↑weak)</t>
+  </si>
+  <si>
     <t>GABR</t>
   </si>
   <si>
     <t>GABA-A recptor</t>
   </si>
   <si>
+    <t>benzodiazepine(↑1),clonazepam(↑1),flunitrazepam(↑2),lorazepam(↑3),diazepam(↑8),clobazam(↑205)</t>
+  </si>
+  <si>
     <t>GLUTAMATE KAINATE</t>
   </si>
   <si>
     <t>Kainate receptor</t>
   </si>
   <si>
+    <t>ketamine(?10K)</t>
+  </si>
+  <si>
     <t>GRI</t>
   </si>
   <si>
     <t>Glutamate receptor ionotropic</t>
   </si>
   <si>
+    <t>ketamine(↓420)</t>
+  </si>
+  <si>
     <t>HRH</t>
   </si>
   <si>
     <t>Histamine receptor</t>
   </si>
   <si>
+    <t>amitriptyline(↓1),chlorpromazine(↓3),risperidone(↓14),trazodone(↓42),ketamine(?10K),nitrazepam(?10K),carbamazepine(?55K)</t>
+  </si>
+  <si>
     <t>HTR</t>
   </si>
   <si>
     <t>5-HT2 receptor</t>
   </si>
   <si>
+    <t>pimozide(↓1),risperidone(↓1),amitriptyline(↓3),chlorpromazine(↓3),bromocriptine(?5),trazodone(?6),haloperidol(↓23),propofol(?950),carbamazepine(?10K),ketamine(?10K)</t>
+  </si>
+  <si>
     <t>KCN</t>
   </si>
   <si>
     <t>Potassium voltage-gated channel</t>
   </si>
   <si>
+    <t>pimozide(↓18)</t>
+  </si>
+  <si>
     <t>KDM4E</t>
   </si>
   <si>
     <t>Lysine-specific demethylase 4E</t>
   </si>
   <si>
+    <t>sinemet(?1K)</t>
+  </si>
+  <si>
     <t>Uniprot</t>
   </si>
   <si>
@@ -860,36 +914,54 @@
     <t>Melatonin receptor</t>
   </si>
   <si>
+    <t>melatonin(↑1)</t>
+  </si>
+  <si>
     <t>NISCH</t>
   </si>
   <si>
     <t>Nischarin</t>
   </si>
   <si>
+    <t>clonidine(?9),dexmedetomidine(?50)</t>
+  </si>
+  <si>
     <t>NR3C</t>
   </si>
   <si>
     <t>Glucocorticoid receptor</t>
   </si>
   <si>
+    <t>prednisolone(↑2),methylprednisolone(↑5),hydroaltesone(↑12),prednisone(↑521)</t>
+  </si>
+  <si>
     <t>OPR</t>
   </si>
   <si>
     <t>Opioid receptor</t>
   </si>
   <si>
+    <t>fentanyl(↑2),ketamine(↑10K)</t>
+  </si>
+  <si>
     <t>SCN</t>
   </si>
   <si>
     <t>Sodium channel</t>
   </si>
   <si>
+    <t>lamotrigine(↓17K),fosphenytoin(↓24K),phenytoin(↓24K),carbamazepine(↓32K),oxcarbazepine(?80K)</t>
+  </si>
+  <si>
     <t>SERPINA6</t>
   </si>
   <si>
     <t>Serine peptidase inhibitor</t>
   </si>
   <si>
+    <t>hydroaltesone(?13),prednisolone(?31)</t>
+  </si>
+  <si>
     <t>NCBI</t>
   </si>
   <si>
@@ -899,28 +971,43 @@
     <t>Sigma-1 receptor</t>
   </si>
   <si>
+    <t>haloperidol(?1),benzhexol(?45),trihexyphenidyl(?45),ketamine(?10K)</t>
+  </si>
+  <si>
     <t>SLC</t>
   </si>
   <si>
     <t>Solute carrier</t>
   </si>
   <si>
+    <t>amitriptyline(↓3),tetrabenazine(↓13),chlorpromazine(?19),pimozide(?69),trazodone(↓102),levodopa(↓323),sinemet(↓323),clonidine(↓550),midazolam(?3K),propofol(?9K),ketamine(↓10K),vigabatrin(↓weak),vigabatrine(↓weak)</t>
+  </si>
+  <si>
     <t>SV2A</t>
   </si>
   <si>
     <t>Synaptic vesicle glycoprotein 2A</t>
   </si>
   <si>
+    <t>levetiracetam(↑10K)</t>
+  </si>
+  <si>
     <t>TAAR1</t>
   </si>
   <si>
     <t>Trace amine-associated receptor 1</t>
   </si>
   <si>
+    <t>levodopa(?422),sinemet(?422)</t>
+  </si>
+  <si>
     <t>TMEM97</t>
   </si>
   <si>
     <t>Sigma-2 receptor</t>
+  </si>
+  <si>
+    <t>haloperidol(?14),trazodone(?536)</t>
   </si>
   <si>
     <t>Drugs referenced:</t>
@@ -2378,7 +2465,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="1238250"/>
+          <a:off x="8191500" y="1866900"/>
           <a:ext cx="7315200" cy="4114800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7470,7 +7557,7 @@
     <col min="5" max="5" width="160.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>239</v>
       </c>
@@ -7478,7 +7565,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>240</v>
       </c>
@@ -7488,1035 +7575,1122 @@
       <c r="C4" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="3" t="s">
         <v>245</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
+      </c>
+      <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>245</v>
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>245</v>
+        <v>264</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>245</v>
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>245</v>
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>245</v>
+        <v>273</v>
+      </c>
+      <c r="C14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>245</v>
+        <v>276</v>
+      </c>
+      <c r="C15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>282</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>285</v>
+      </c>
+      <c r="C18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="C20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>294</v>
+      </c>
+      <c r="C21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>301</v>
+      </c>
+      <c r="C23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>304</v>
+      </c>
+      <c r="C24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
-        <v>286</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>307</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>310</v>
+      </c>
+      <c r="C26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>290</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>313</v>
+      </c>
+      <c r="C27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>317</v>
+      </c>
+      <c r="C28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>320</v>
+      </c>
+      <c r="C29" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B30" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>326</v>
+      </c>
+      <c r="C31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>329</v>
+      </c>
+      <c r="C32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" ht="50" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="C36" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="C39" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="C40" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="C44" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="C45" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="C46" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="C47" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="C51" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="C54" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="C55" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="C57" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="C60" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="C61" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="C62" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="B63" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="C63" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="C64" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="C65" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="B66" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="C67" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="B68" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="C68" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="B69" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="C69" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="C70" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="B71" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="C71" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B72" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="C72" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="B73" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="C73" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="B74" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="C74" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="B75" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="C75" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="B77" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="C77" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="B78" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="C78" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="B79" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="C79" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="B80" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="C80" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="B81" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="C81" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="B82" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="C82" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="B83" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="C83" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="B84" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="C84" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="B85" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="C85" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -8524,34 +8698,34 @@
     <mergeCell ref="E5:E32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="C20" r:id="rId16"/>
-    <hyperlink ref="C21" r:id="rId17"/>
-    <hyperlink ref="C22" r:id="rId18"/>
-    <hyperlink ref="C23" r:id="rId19"/>
-    <hyperlink ref="C24" r:id="rId20"/>
-    <hyperlink ref="C25" r:id="rId21"/>
-    <hyperlink ref="C26" r:id="rId22"/>
-    <hyperlink ref="C27" r:id="rId23"/>
-    <hyperlink ref="C28" r:id="rId24"/>
-    <hyperlink ref="C29" r:id="rId25"/>
-    <hyperlink ref="C30" r:id="rId26"/>
-    <hyperlink ref="C31" r:id="rId27"/>
-    <hyperlink ref="C32" r:id="rId28"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8"/>
+    <hyperlink ref="D13" r:id="rId9"/>
+    <hyperlink ref="D14" r:id="rId10"/>
+    <hyperlink ref="D15" r:id="rId11"/>
+    <hyperlink ref="D16" r:id="rId12"/>
+    <hyperlink ref="D17" r:id="rId13"/>
+    <hyperlink ref="D18" r:id="rId14"/>
+    <hyperlink ref="D19" r:id="rId15"/>
+    <hyperlink ref="D20" r:id="rId16"/>
+    <hyperlink ref="D21" r:id="rId17"/>
+    <hyperlink ref="D22" r:id="rId18"/>
+    <hyperlink ref="D23" r:id="rId19"/>
+    <hyperlink ref="D24" r:id="rId20"/>
+    <hyperlink ref="D25" r:id="rId21"/>
+    <hyperlink ref="D26" r:id="rId22"/>
+    <hyperlink ref="D27" r:id="rId23"/>
+    <hyperlink ref="D28" r:id="rId24"/>
+    <hyperlink ref="D29" r:id="rId25"/>
+    <hyperlink ref="D30" r:id="rId26"/>
+    <hyperlink ref="D31" r:id="rId27"/>
+    <hyperlink ref="D32" r:id="rId28"/>
     <hyperlink ref="D36" r:id="rId29"/>
     <hyperlink ref="D37" r:id="rId30"/>
     <hyperlink ref="D38" r:id="rId31"/>

--- a/gnao1_therapy.xlsx
+++ b/gnao1_therapy.xlsx
@@ -137,7 +137,7 @@
     <t>G42R</t>
   </si>
   <si>
-    <t>EOEE; choreoathetosis</t>
+    <t>EOEE; severe hypotonia, choreoathetosis</t>
   </si>
   <si>
     <t>25590979</t>

--- a/gnao1_therapy.xlsx
+++ b/gnao1_therapy.xlsx
@@ -122,10 +122,10 @@
     <t>G40E</t>
   </si>
   <si>
-    <t>EOEE; spastic quad</t>
-  </si>
-  <si>
-    <t>EOEE; dystonia spasticity</t>
+    <t>EOEE; hyptonia</t>
+  </si>
+  <si>
+    <t>EOEE; hyptonia; dystonia</t>
   </si>
   <si>
     <t xml:space="preserve">    no</t>
